--- a/cost & bbm 2022 sd 2025.xlsx
+++ b/cost & bbm 2022 sd 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Downloads\SPIL\bbm\Analisa BBM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6615E8-1AD5-46EB-AA08-29EE1DC64463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BBB8286-B7E7-49DB-85FB-586F90FB01E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{F88CA839-DB7F-4E60-9CFF-046C703DC5B0}"/>
   </bookViews>
@@ -1525,23 +1525,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5915B8A4-606E-4D98-A929-6F2AE5EE112A}">
   <dimension ref="A1:M249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
-      <selection activeCell="K246" sqref="K246"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.5703125" customWidth="1"/>
     <col min="3" max="3" width="26.85546875" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" style="14" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" style="14" customWidth="1"/>
-    <col min="8" max="8" width="6" style="14" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" style="14" customWidth="1"/>
-    <col min="10" max="10" width="6" style="14" customWidth="1"/>
-    <col min="11" max="13" width="6.85546875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="14" bestFit="1" customWidth="1"/>
     <col min="14" max="1020" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1609,84 +1611,84 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="10">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="13">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="F3" s="13">
-        <v>163</v>
+        <v>994</v>
       </c>
       <c r="G3" s="13">
-        <v>330</v>
+        <v>1470</v>
       </c>
       <c r="H3" s="13">
-        <v>113</v>
+        <v>797</v>
       </c>
       <c r="I3" s="13">
-        <v>387.5</v>
+        <v>1455</v>
       </c>
       <c r="J3" s="13">
-        <v>612.29999999999995</v>
+        <v>680</v>
       </c>
       <c r="K3" s="13">
-        <v>470</v>
+        <v>1611</v>
       </c>
       <c r="L3" s="13">
-        <v>385.5</v>
+        <v>459</v>
       </c>
       <c r="M3" s="13">
-        <v>562</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="10">
-        <v>128</v>
+        <v>2</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>162</v>
+        <v>13</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F4" s="13">
-        <v>1460</v>
+        <v>221</v>
       </c>
       <c r="G4" s="13">
-        <v>2715</v>
+        <v>525</v>
       </c>
       <c r="H4" s="13">
-        <v>212</v>
+        <v>317</v>
       </c>
       <c r="I4" s="13">
-        <v>175</v>
+        <v>725</v>
       </c>
       <c r="J4" s="13">
-        <v>157</v>
+        <v>501</v>
       </c>
       <c r="K4" s="13">
-        <v>949.82</v>
+        <v>1613</v>
       </c>
       <c r="L4" s="13">
-        <v>489</v>
+        <v>373</v>
       </c>
       <c r="M4" s="13">
-        <v>732.43</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1773,43 +1775,43 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="10">
-        <v>232</v>
+        <v>5</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>281</v>
+        <v>17</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>282</v>
+        <v>18</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="13">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F7" s="13">
-        <v>629</v>
+        <v>795</v>
       </c>
       <c r="G7" s="13">
-        <v>1150</v>
+        <v>30683</v>
       </c>
       <c r="H7" s="13">
-        <v>0</v>
+        <v>593</v>
       </c>
       <c r="I7" s="13">
-        <v>0</v>
+        <v>2285</v>
       </c>
       <c r="J7" s="13">
-        <v>0</v>
+        <v>625</v>
       </c>
       <c r="K7" s="13">
-        <v>0</v>
+        <v>2190</v>
       </c>
       <c r="L7" s="13">
-        <v>548</v>
+        <v>621</v>
       </c>
       <c r="M7" s="13">
-        <v>967.17</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -2019,43 +2021,43 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="10">
-        <v>233</v>
+        <v>11</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>283</v>
+        <v>25</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>282</v>
+        <v>26</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E13" s="13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F13" s="13">
-        <v>0</v>
+        <v>778</v>
       </c>
       <c r="G13" s="13">
-        <v>0</v>
+        <v>2523</v>
       </c>
       <c r="H13" s="13">
-        <v>0</v>
+        <v>890</v>
       </c>
       <c r="I13" s="13">
-        <v>0</v>
+        <v>3742</v>
       </c>
       <c r="J13" s="13">
-        <v>0</v>
+        <v>766</v>
       </c>
       <c r="K13" s="13">
-        <v>630</v>
+        <v>3119</v>
       </c>
       <c r="L13" s="13">
-        <v>0</v>
+        <v>606</v>
       </c>
       <c r="M13" s="13">
-        <v>0</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -2388,51 +2390,51 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="10">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E22" s="13">
-        <v>2.5</v>
+        <v>32</v>
       </c>
       <c r="F22" s="13">
-        <v>994</v>
+        <v>97</v>
       </c>
       <c r="G22" s="13">
-        <v>1470</v>
+        <v>550</v>
       </c>
       <c r="H22" s="13">
-        <v>797</v>
+        <v>572</v>
       </c>
       <c r="I22" s="13">
-        <v>1455</v>
+        <v>6700</v>
       </c>
       <c r="J22" s="13">
-        <v>680</v>
+        <v>580</v>
       </c>
       <c r="K22" s="13">
-        <v>1611</v>
+        <v>5953.49</v>
       </c>
       <c r="L22" s="13">
-        <v>459</v>
+        <v>379.5</v>
       </c>
       <c r="M22" s="13">
-        <v>1030</v>
+        <v>153.49</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>42</v>
@@ -2441,39 +2443,39 @@
         <v>12</v>
       </c>
       <c r="E23" s="13">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="F23" s="13">
-        <v>461.2</v>
+        <v>706</v>
       </c>
       <c r="G23" s="13">
-        <v>690</v>
+        <v>1358</v>
       </c>
       <c r="H23" s="13">
-        <v>1578.6</v>
+        <v>548</v>
       </c>
       <c r="I23" s="13">
-        <v>2897</v>
+        <v>1961</v>
       </c>
       <c r="J23" s="13">
-        <v>924</v>
+        <v>652</v>
       </c>
       <c r="K23" s="13">
-        <v>1584</v>
+        <v>2126</v>
       </c>
       <c r="L23" s="13">
-        <v>473</v>
+        <v>142.1</v>
       </c>
       <c r="M23" s="13">
-        <v>765</v>
+        <v>533.86</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="10">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>42</v>
@@ -2485,162 +2487,162 @@
         <v>2.5</v>
       </c>
       <c r="F24" s="13">
-        <v>0</v>
+        <v>461.2</v>
       </c>
       <c r="G24" s="13">
-        <v>10</v>
+        <v>690</v>
       </c>
       <c r="H24" s="13">
-        <v>0</v>
+        <v>1578.6</v>
       </c>
       <c r="I24" s="13">
-        <v>0</v>
+        <v>2897</v>
       </c>
       <c r="J24" s="13">
-        <v>1277.4000000000001</v>
+        <v>924</v>
       </c>
       <c r="K24" s="13">
-        <v>0</v>
+        <v>1584</v>
       </c>
       <c r="L24" s="13">
-        <v>848.3</v>
+        <v>473</v>
       </c>
       <c r="M24" s="13">
-        <v>0</v>
+        <v>765</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="10">
+        <v>23</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>68</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E25" s="13">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F25" s="13">
-        <v>805</v>
+        <v>0</v>
       </c>
       <c r="G25" s="13">
-        <v>1585</v>
+        <v>0</v>
       </c>
       <c r="H25" s="13">
-        <v>1171</v>
+        <v>0</v>
       </c>
       <c r="I25" s="13">
-        <v>3395</v>
+        <v>0</v>
       </c>
       <c r="J25" s="13">
-        <v>2012</v>
+        <v>1796.4</v>
       </c>
       <c r="K25" s="13">
-        <v>5043.08</v>
+        <v>0</v>
       </c>
       <c r="L25" s="13">
-        <v>1934</v>
+        <v>1072.3</v>
       </c>
       <c r="M25" s="13">
-        <v>4360.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="10">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E26" s="13">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="F26" s="13">
-        <v>756</v>
+        <v>0</v>
       </c>
       <c r="G26" s="13">
-        <v>2040</v>
+        <v>0</v>
       </c>
       <c r="H26" s="13">
-        <v>894</v>
+        <v>0</v>
       </c>
       <c r="I26" s="13">
-        <v>2915</v>
+        <v>0</v>
       </c>
       <c r="J26" s="13">
-        <v>297</v>
+        <v>167.2</v>
       </c>
       <c r="K26" s="13">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="L26" s="13">
-        <v>466</v>
+        <v>545.1</v>
       </c>
       <c r="M26" s="13">
-        <v>768.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="10">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E27" s="13">
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="F27" s="13">
-        <v>961</v>
+        <v>826.7</v>
       </c>
       <c r="G27" s="13">
-        <v>1775</v>
+        <v>0</v>
       </c>
       <c r="H27" s="13">
-        <v>541</v>
+        <v>0</v>
       </c>
       <c r="I27" s="13">
-        <v>915</v>
+        <v>0</v>
       </c>
       <c r="J27" s="13">
-        <v>327</v>
+        <v>148.19999999999999</v>
       </c>
       <c r="K27" s="13">
-        <v>299.10000000000002</v>
+        <v>0</v>
       </c>
       <c r="L27" s="13">
-        <v>216</v>
+        <v>135.1</v>
       </c>
       <c r="M27" s="13">
-        <v>279.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="10">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>12</v>
@@ -2649,69 +2651,69 @@
         <v>2.5</v>
       </c>
       <c r="F28" s="13">
-        <v>217</v>
+        <v>0</v>
       </c>
       <c r="G28" s="13">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="H28" s="13">
-        <v>202</v>
+        <v>0</v>
       </c>
       <c r="I28" s="13">
-        <v>357</v>
+        <v>0</v>
       </c>
       <c r="J28" s="13">
-        <v>163</v>
+        <v>1277.4000000000001</v>
       </c>
       <c r="K28" s="13">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="L28" s="13">
-        <v>0</v>
+        <v>848.3</v>
       </c>
       <c r="M28" s="13">
-        <v>27.79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="10">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>145</v>
+        <v>48</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>143</v>
+        <v>42</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E29" s="13">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="F29" s="13">
-        <v>60</v>
+        <v>92.099999999999895</v>
       </c>
       <c r="G29" s="13">
-        <v>172</v>
+        <v>2150</v>
       </c>
       <c r="H29" s="13">
-        <v>377</v>
+        <v>900.2</v>
       </c>
       <c r="I29" s="13">
-        <v>355</v>
+        <v>2358</v>
       </c>
       <c r="J29" s="13">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="K29" s="13">
-        <v>572.37</v>
+        <v>1431</v>
       </c>
       <c r="L29" s="13">
-        <v>434</v>
+        <v>255</v>
       </c>
       <c r="M29" s="13">
-        <v>544.24</v>
+        <v>445</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -2839,84 +2841,84 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="10">
-        <v>198</v>
+        <v>31</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>234</v>
+        <v>52</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>235</v>
+        <v>53</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E33" s="13">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F33" s="13">
-        <v>1150</v>
+        <v>1559.3</v>
       </c>
       <c r="G33" s="13">
-        <v>1890</v>
+        <v>0</v>
       </c>
       <c r="H33" s="13">
-        <v>793</v>
+        <v>925.40000000000202</v>
       </c>
       <c r="I33" s="13">
-        <v>1520</v>
+        <v>2520</v>
       </c>
       <c r="J33" s="13">
-        <v>1493</v>
+        <v>868.98000000000104</v>
       </c>
       <c r="K33" s="13">
-        <v>2562.0100000000002</v>
+        <v>2700</v>
       </c>
       <c r="L33" s="13">
-        <v>589</v>
+        <v>1026.56</v>
       </c>
       <c r="M33" s="13">
-        <v>1030.95</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="10">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D34" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E34" s="13">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="F34" s="13">
-        <v>706</v>
+        <v>957.7</v>
       </c>
       <c r="G34" s="13">
-        <v>1358</v>
+        <v>38710</v>
       </c>
       <c r="H34" s="13">
-        <v>548</v>
+        <v>845.2</v>
       </c>
       <c r="I34" s="13">
-        <v>1961</v>
+        <v>9900</v>
       </c>
       <c r="J34" s="13">
-        <v>652</v>
+        <v>1081.8</v>
       </c>
       <c r="K34" s="13">
-        <v>2126</v>
+        <v>13500</v>
       </c>
       <c r="L34" s="13">
-        <v>142.1</v>
+        <v>1332.3</v>
       </c>
       <c r="M34" s="13">
-        <v>533.86</v>
+        <v>14360</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2962,13 +2964,13 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="10">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>12</v>
@@ -2977,36 +2979,36 @@
         <v>3</v>
       </c>
       <c r="F36" s="13">
-        <v>0</v>
+        <v>624</v>
       </c>
       <c r="G36" s="13">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="H36" s="13">
-        <v>0</v>
+        <v>667</v>
       </c>
       <c r="I36" s="13">
-        <v>0</v>
+        <v>1630</v>
       </c>
       <c r="J36" s="13">
-        <v>167.2</v>
+        <v>735</v>
       </c>
       <c r="K36" s="13">
-        <v>0</v>
+        <v>1856.55</v>
       </c>
       <c r="L36" s="13">
-        <v>545.1</v>
+        <v>657</v>
       </c>
       <c r="M36" s="13">
-        <v>0</v>
+        <v>914.45</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>58</v>
@@ -3015,195 +3017,195 @@
         <v>12</v>
       </c>
       <c r="E37" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F37" s="13">
-        <v>624</v>
+        <v>0</v>
       </c>
       <c r="G37" s="13">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="H37" s="13">
-        <v>667</v>
+        <v>0</v>
       </c>
       <c r="I37" s="13">
-        <v>1630</v>
+        <v>0</v>
       </c>
       <c r="J37" s="13">
-        <v>735</v>
+        <v>0</v>
       </c>
       <c r="K37" s="13">
-        <v>1856.55</v>
+        <v>0</v>
       </c>
       <c r="L37" s="13">
-        <v>657</v>
+        <v>0</v>
       </c>
       <c r="M37" s="13">
-        <v>914.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="10">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>154</v>
+        <v>60</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>153</v>
+        <v>58</v>
       </c>
       <c r="D38" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E38" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F38" s="13">
-        <v>323.10000000000002</v>
+        <v>1579</v>
       </c>
       <c r="G38" s="13">
-        <v>420</v>
+        <v>3005</v>
       </c>
       <c r="H38" s="13">
-        <v>539</v>
+        <v>1092</v>
       </c>
       <c r="I38" s="13">
-        <v>590</v>
+        <v>3070</v>
       </c>
       <c r="J38" s="13">
-        <v>502</v>
+        <v>1493</v>
       </c>
       <c r="K38" s="13">
-        <v>564.71</v>
+        <v>3773.27</v>
       </c>
       <c r="L38" s="13">
-        <v>105</v>
+        <v>1502</v>
       </c>
       <c r="M38" s="13">
-        <v>208.06</v>
+        <v>4058.71</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="10">
-        <v>153</v>
+        <v>37</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>188</v>
+        <v>61</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>187</v>
+        <v>58</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E39" s="13">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="F39" s="13">
-        <v>1213</v>
+        <v>796</v>
       </c>
       <c r="G39" s="13">
-        <v>2695</v>
+        <v>355</v>
       </c>
       <c r="H39" s="13">
-        <v>1070</v>
+        <v>161</v>
       </c>
       <c r="I39" s="13">
-        <v>2985</v>
+        <v>70</v>
       </c>
       <c r="J39" s="13">
-        <v>1182</v>
+        <v>65</v>
       </c>
       <c r="K39" s="13">
-        <v>2738.55</v>
+        <v>105</v>
       </c>
       <c r="L39" s="13">
-        <v>1716</v>
+        <v>183</v>
       </c>
       <c r="M39" s="13">
-        <v>3460.54</v>
+        <v>161.04</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="10">
-        <v>200</v>
+        <v>38</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>238</v>
+        <v>62</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>237</v>
+        <v>58</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E40" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F40" s="13">
-        <v>1111</v>
+        <v>1400</v>
       </c>
       <c r="G40" s="13">
-        <v>1861</v>
+        <v>2727</v>
       </c>
       <c r="H40" s="13">
-        <v>817.5</v>
+        <v>1079</v>
       </c>
       <c r="I40" s="13">
-        <v>1318</v>
+        <v>3055</v>
       </c>
       <c r="J40" s="13">
-        <v>911.1</v>
+        <v>1109</v>
       </c>
       <c r="K40" s="13">
-        <v>1338</v>
+        <v>3158.38</v>
       </c>
       <c r="L40" s="13">
-        <v>685</v>
+        <v>1237</v>
       </c>
       <c r="M40" s="13">
-        <v>1081</v>
+        <v>4543.93</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="10">
-        <v>229</v>
+        <v>39</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>275</v>
+        <v>63</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>276</v>
+        <v>58</v>
       </c>
       <c r="D41" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E41" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F41" s="13">
-        <v>1307</v>
+        <v>163</v>
       </c>
       <c r="G41" s="13">
-        <v>1140</v>
+        <v>330</v>
       </c>
       <c r="H41" s="13">
-        <v>1180</v>
+        <v>113</v>
       </c>
       <c r="I41" s="13">
+        <v>387.5</v>
+      </c>
+      <c r="J41" s="13">
+        <v>612.29999999999995</v>
+      </c>
+      <c r="K41" s="13">
         <v>470</v>
       </c>
-      <c r="J41" s="13">
-        <v>699</v>
-      </c>
-      <c r="K41" s="13">
-        <v>1150</v>
-      </c>
       <c r="L41" s="13">
-        <v>813</v>
+        <v>385.5</v>
       </c>
       <c r="M41" s="13">
-        <v>13265</v>
+        <v>562</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -3290,133 +3292,133 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="10">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="D44" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E44" s="13">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F44" s="13">
-        <v>795</v>
+        <v>805</v>
       </c>
       <c r="G44" s="13">
-        <v>30683</v>
+        <v>1585</v>
       </c>
       <c r="H44" s="13">
-        <v>593</v>
+        <v>1171</v>
       </c>
       <c r="I44" s="13">
-        <v>2285</v>
+        <v>3395</v>
       </c>
       <c r="J44" s="13">
-        <v>625</v>
+        <v>2012</v>
       </c>
       <c r="K44" s="13">
-        <v>2190</v>
+        <v>5043.08</v>
       </c>
       <c r="L44" s="13">
-        <v>621</v>
+        <v>1934</v>
       </c>
       <c r="M44" s="13">
-        <v>2325</v>
+        <v>4360.17</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="10">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E45" s="13">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F45" s="13">
-        <v>0</v>
+        <v>756</v>
       </c>
       <c r="G45" s="13">
-        <v>0</v>
+        <v>2040</v>
       </c>
       <c r="H45" s="13">
-        <v>0</v>
+        <v>894</v>
       </c>
       <c r="I45" s="13">
-        <v>0</v>
+        <v>2915</v>
       </c>
       <c r="J45" s="13">
-        <v>1796.4</v>
+        <v>297</v>
       </c>
       <c r="K45" s="13">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="L45" s="13">
-        <v>1072.3</v>
+        <v>466</v>
       </c>
       <c r="M45" s="13">
-        <v>0</v>
+        <v>768.64</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="10">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D46" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E46" s="13">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F46" s="13">
-        <v>796</v>
+        <v>2130</v>
       </c>
       <c r="G46" s="13">
-        <v>355</v>
+        <v>6950</v>
       </c>
       <c r="H46" s="13">
-        <v>161</v>
+        <v>1901</v>
       </c>
       <c r="I46" s="13">
-        <v>70</v>
+        <v>7300</v>
       </c>
       <c r="J46" s="13">
-        <v>65</v>
+        <v>1939</v>
       </c>
       <c r="K46" s="13">
-        <v>105</v>
+        <v>7052.7</v>
       </c>
       <c r="L46" s="13">
-        <v>183</v>
+        <v>2009</v>
       </c>
       <c r="M46" s="13">
-        <v>161.04</v>
+        <v>6947.12</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="10">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C47" s="12" t="s">
         <v>68</v>
@@ -3425,124 +3427,124 @@
         <v>12</v>
       </c>
       <c r="E47" s="13">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F47" s="13">
-        <v>1284</v>
+        <v>961</v>
       </c>
       <c r="G47" s="13">
-        <v>4110</v>
+        <v>1775</v>
       </c>
       <c r="H47" s="13">
-        <v>985</v>
+        <v>541</v>
       </c>
       <c r="I47" s="13">
-        <v>3355</v>
+        <v>915</v>
       </c>
       <c r="J47" s="13">
-        <v>1523</v>
+        <v>327</v>
       </c>
       <c r="K47" s="13">
-        <v>4367.17</v>
+        <v>299.10000000000002</v>
       </c>
       <c r="L47" s="13">
-        <v>1544</v>
+        <v>216</v>
       </c>
       <c r="M47" s="13">
-        <v>4598.4799999999996</v>
+        <v>279.32</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="10">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>143</v>
+        <v>68</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E48" s="13">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F48" s="13">
-        <v>678</v>
+        <v>1680</v>
       </c>
       <c r="G48" s="13">
-        <v>1446</v>
+        <v>4995</v>
       </c>
       <c r="H48" s="13">
-        <v>566</v>
+        <v>1769</v>
       </c>
       <c r="I48" s="13">
-        <v>1196</v>
+        <v>5415</v>
       </c>
       <c r="J48" s="13">
-        <v>61</v>
+        <v>1930</v>
       </c>
       <c r="K48" s="13">
-        <v>93</v>
+        <v>6099.4</v>
       </c>
       <c r="L48" s="13">
-        <v>100</v>
+        <v>1688</v>
       </c>
       <c r="M48" s="13">
-        <v>239.45</v>
+        <v>4914.28</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="10">
-        <v>152</v>
+        <v>47</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>186</v>
+        <v>73</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>187</v>
+        <v>68</v>
       </c>
       <c r="D49" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E49" s="13">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F49" s="13">
-        <v>0</v>
+        <v>1589</v>
       </c>
       <c r="G49" s="13">
-        <v>90</v>
+        <v>6006</v>
       </c>
       <c r="H49" s="13">
-        <v>3305</v>
+        <v>1370</v>
       </c>
       <c r="I49" s="13">
-        <v>1475</v>
+        <v>5760</v>
       </c>
       <c r="J49" s="13">
-        <v>1274</v>
+        <v>1310</v>
       </c>
       <c r="K49" s="13">
-        <v>3428.46</v>
+        <v>4598.93</v>
       </c>
       <c r="L49" s="13">
-        <v>1149</v>
+        <v>1655</v>
       </c>
       <c r="M49" s="13">
-        <v>3032.86</v>
+        <v>5824.89</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="10">
-        <v>208</v>
+        <v>48</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>248</v>
+        <v>74</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>249</v>
+        <v>68</v>
       </c>
       <c r="D50" s="12" t="s">
         <v>12</v>
@@ -3551,28 +3553,28 @@
         <v>3.5</v>
       </c>
       <c r="F50" s="13">
-        <v>724</v>
+        <v>1284</v>
       </c>
       <c r="G50" s="13">
-        <v>2105</v>
+        <v>4110</v>
       </c>
       <c r="H50" s="13">
-        <v>669</v>
+        <v>985</v>
       </c>
       <c r="I50" s="13">
-        <v>1985</v>
+        <v>3355</v>
       </c>
       <c r="J50" s="13">
-        <v>677</v>
+        <v>1523</v>
       </c>
       <c r="K50" s="13">
-        <v>1751.01</v>
+        <v>4367.17</v>
       </c>
       <c r="L50" s="13">
-        <v>654.29999999999995</v>
+        <v>1544</v>
       </c>
       <c r="M50" s="13">
-        <v>1622.27</v>
+        <v>4598.4799999999996</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -3823,43 +3825,43 @@
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="10">
-        <v>220</v>
+        <v>55</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>265</v>
+        <v>82</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>263</v>
+        <v>83</v>
       </c>
       <c r="D57" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E57" s="13">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F57" s="13">
-        <v>1203</v>
+        <v>673</v>
       </c>
       <c r="G57" s="13">
-        <v>4045</v>
+        <v>2661</v>
       </c>
       <c r="H57" s="13">
-        <v>1033</v>
+        <v>651</v>
       </c>
       <c r="I57" s="13">
-        <v>4495</v>
+        <v>2490</v>
       </c>
       <c r="J57" s="13">
-        <v>972</v>
+        <v>524</v>
       </c>
       <c r="K57" s="13">
-        <v>3210</v>
+        <v>2330</v>
       </c>
       <c r="L57" s="13">
-        <v>1262</v>
+        <v>445</v>
       </c>
       <c r="M57" s="13">
-        <v>4425</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -3905,166 +3907,166 @@
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="10">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E59" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F59" s="13">
-        <v>1579</v>
+        <v>1498</v>
       </c>
       <c r="G59" s="13">
-        <v>3005</v>
+        <v>7790</v>
       </c>
       <c r="H59" s="13">
-        <v>1092</v>
+        <v>830</v>
       </c>
       <c r="I59" s="13">
-        <v>3070</v>
+        <v>4249</v>
       </c>
       <c r="J59" s="13">
-        <v>1493</v>
+        <v>276</v>
       </c>
       <c r="K59" s="13">
-        <v>3773.27</v>
+        <v>851</v>
       </c>
       <c r="L59" s="13">
-        <v>1502</v>
+        <v>423</v>
       </c>
       <c r="M59" s="13">
-        <v>4058.71</v>
+        <v>1120.02</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="10">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>143</v>
+        <v>86</v>
       </c>
       <c r="D60" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E60" s="13">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F60" s="13">
-        <v>2254</v>
+        <v>1460</v>
       </c>
       <c r="G60" s="13">
-        <v>5997</v>
+        <v>6698</v>
       </c>
       <c r="H60" s="13">
-        <v>1808</v>
+        <v>1154</v>
       </c>
       <c r="I60" s="13">
-        <v>5608</v>
+        <v>7788</v>
       </c>
       <c r="J60" s="13">
-        <v>1840</v>
+        <v>1395</v>
       </c>
       <c r="K60" s="13">
-        <v>3983.86</v>
+        <v>6898</v>
       </c>
       <c r="L60" s="13">
-        <v>1668</v>
+        <v>2017</v>
       </c>
       <c r="M60" s="13">
-        <v>4409.6099999999997</v>
+        <v>10311.280000000001</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="10">
-        <v>124</v>
+        <v>59</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>158</v>
+        <v>88</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>153</v>
+        <v>86</v>
       </c>
       <c r="D61" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E61" s="13">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="F61" s="13">
-        <v>1269</v>
+        <v>217</v>
       </c>
       <c r="G61" s="13">
-        <v>4260</v>
+        <v>60</v>
       </c>
       <c r="H61" s="13">
-        <v>1311</v>
+        <v>202</v>
       </c>
       <c r="I61" s="13">
-        <v>5660</v>
+        <v>357</v>
       </c>
       <c r="J61" s="13">
-        <v>1312</v>
+        <v>163</v>
       </c>
       <c r="K61" s="13">
-        <v>5436.83</v>
+        <v>63</v>
       </c>
       <c r="L61" s="13">
-        <v>956</v>
+        <v>0</v>
       </c>
       <c r="M61" s="13">
-        <v>3889.16</v>
+        <v>27.79</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="10">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>159</v>
+        <v>89</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>153</v>
+        <v>86</v>
       </c>
       <c r="D62" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E62" s="13">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F62" s="13">
-        <v>747</v>
+        <v>668</v>
       </c>
       <c r="G62" s="13">
-        <v>3380</v>
+        <v>2116.4389999999999</v>
       </c>
       <c r="H62" s="13">
-        <v>1454</v>
+        <v>483</v>
       </c>
       <c r="I62" s="13">
-        <v>6430</v>
+        <v>3793</v>
       </c>
       <c r="J62" s="13">
-        <v>1095</v>
+        <v>573</v>
       </c>
       <c r="K62" s="13">
-        <v>4009.49</v>
+        <v>1318</v>
       </c>
       <c r="L62" s="13">
-        <v>1307</v>
+        <v>835</v>
       </c>
       <c r="M62" s="13">
-        <v>4054.68</v>
+        <v>2000.25</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -5832,43 +5834,43 @@
     </row>
     <row r="106" spans="1:13">
       <c r="A106" s="10">
-        <v>221</v>
+        <v>104</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>266</v>
+        <v>133</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>263</v>
+        <v>134</v>
       </c>
       <c r="D106" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E106" s="13">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="F106" s="13">
-        <v>1234</v>
+        <v>701</v>
       </c>
       <c r="G106" s="13">
-        <v>3025</v>
+        <v>4800</v>
       </c>
       <c r="H106" s="13">
-        <v>1409</v>
+        <v>903</v>
       </c>
       <c r="I106" s="13">
-        <v>5760</v>
+        <v>5530</v>
       </c>
       <c r="J106" s="13">
-        <v>1146</v>
+        <v>924</v>
       </c>
       <c r="K106" s="13">
-        <v>5265</v>
+        <v>6750</v>
       </c>
       <c r="L106" s="13">
-        <v>1226</v>
+        <v>735</v>
       </c>
       <c r="M106" s="13">
-        <v>4775</v>
+        <v>7800</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -5914,125 +5916,125 @@
     </row>
     <row r="108" spans="1:13">
       <c r="A108" s="10">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>52</v>
+        <v>136</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>53</v>
+        <v>137</v>
       </c>
       <c r="D108" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E108" s="13">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="F108" s="13">
-        <v>1559.3</v>
+        <v>0</v>
       </c>
       <c r="G108" s="13">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H108" s="13">
-        <v>925.40000000000202</v>
+        <v>0</v>
       </c>
       <c r="I108" s="13">
-        <v>2520</v>
+        <v>0</v>
       </c>
       <c r="J108" s="13">
-        <v>868.98000000000104</v>
+        <v>615</v>
       </c>
       <c r="K108" s="13">
-        <v>2700</v>
+        <v>3456.86</v>
       </c>
       <c r="L108" s="13">
-        <v>1026.56</v>
+        <v>405</v>
       </c>
       <c r="M108" s="13">
-        <v>2685</v>
+        <v>1421.39</v>
       </c>
     </row>
     <row r="109" spans="1:13">
       <c r="A109" s="10">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>68</v>
+        <v>137</v>
       </c>
       <c r="D109" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E109" s="13">
-        <v>4.5</v>
+        <v>32</v>
       </c>
       <c r="F109" s="13">
-        <v>2130</v>
+        <v>2521</v>
       </c>
       <c r="G109" s="13">
-        <v>6950</v>
+        <v>20900</v>
       </c>
       <c r="H109" s="13">
-        <v>1901</v>
+        <v>2183</v>
       </c>
       <c r="I109" s="13">
-        <v>7300</v>
+        <v>26575</v>
       </c>
       <c r="J109" s="13">
-        <v>1939</v>
+        <v>2340</v>
       </c>
       <c r="K109" s="13">
-        <v>7052.7</v>
+        <v>19678</v>
       </c>
       <c r="L109" s="13">
-        <v>2009</v>
+        <v>2188</v>
       </c>
       <c r="M109" s="13">
-        <v>6947.12</v>
+        <v>25459.79</v>
       </c>
     </row>
     <row r="110" spans="1:13">
       <c r="A110" s="10">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>68</v>
+        <v>140</v>
       </c>
       <c r="D110" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E110" s="13">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="F110" s="13">
-        <v>1680</v>
+        <v>1487</v>
       </c>
       <c r="G110" s="13">
-        <v>4995</v>
+        <v>6023</v>
       </c>
       <c r="H110" s="13">
-        <v>1769</v>
+        <v>404</v>
       </c>
       <c r="I110" s="13">
-        <v>5415</v>
+        <v>1980</v>
       </c>
       <c r="J110" s="13">
-        <v>1930</v>
+        <v>672</v>
       </c>
       <c r="K110" s="13">
-        <v>6099.4</v>
+        <v>2422</v>
       </c>
       <c r="L110" s="13">
-        <v>1688</v>
+        <v>538</v>
       </c>
       <c r="M110" s="13">
-        <v>4914.28</v>
+        <v>1716.26</v>
       </c>
     </row>
     <row r="111" spans="1:13">
@@ -6078,51 +6080,51 @@
     </row>
     <row r="112" spans="1:13">
       <c r="A112" s="10">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>68</v>
+        <v>143</v>
       </c>
       <c r="D112" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E112" s="13">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="F112" s="13">
-        <v>1589</v>
+        <v>1832</v>
       </c>
       <c r="G112" s="13">
-        <v>6006</v>
+        <v>4986</v>
       </c>
       <c r="H112" s="13">
-        <v>1370</v>
+        <v>2113</v>
       </c>
       <c r="I112" s="13">
-        <v>5760</v>
+        <v>8099</v>
       </c>
       <c r="J112" s="13">
-        <v>1310</v>
+        <v>2488</v>
       </c>
       <c r="K112" s="13">
-        <v>4598.93</v>
+        <v>8137.97</v>
       </c>
       <c r="L112" s="13">
-        <v>1655</v>
+        <v>2376</v>
       </c>
       <c r="M112" s="13">
-        <v>5824.89</v>
+        <v>7534.54</v>
       </c>
     </row>
     <row r="113" spans="1:13">
       <c r="A113" s="10">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C113" s="12" t="s">
         <v>143</v>
@@ -6131,154 +6133,154 @@
         <v>12</v>
       </c>
       <c r="E113" s="13">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F113" s="13">
-        <v>2229</v>
+        <v>678</v>
       </c>
       <c r="G113" s="13">
-        <v>6750</v>
+        <v>1446</v>
       </c>
       <c r="H113" s="13">
-        <v>2151</v>
+        <v>566</v>
       </c>
       <c r="I113" s="13">
-        <v>6409</v>
+        <v>1196</v>
       </c>
       <c r="J113" s="13">
-        <v>2519</v>
+        <v>61</v>
       </c>
       <c r="K113" s="13">
-        <v>5679.52</v>
+        <v>93</v>
       </c>
       <c r="L113" s="13">
-        <v>2414</v>
+        <v>100</v>
       </c>
       <c r="M113" s="13">
-        <v>5983.96</v>
+        <v>239.45</v>
       </c>
     </row>
     <row r="114" spans="1:13">
       <c r="A114" s="10">
-        <v>2</v>
+        <v>112</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="D114" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E114" s="13">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="F114" s="13">
-        <v>221</v>
+        <v>60</v>
       </c>
       <c r="G114" s="13">
-        <v>525</v>
+        <v>172</v>
       </c>
       <c r="H114" s="13">
-        <v>317</v>
+        <v>377</v>
       </c>
       <c r="I114" s="13">
-        <v>725</v>
+        <v>355</v>
       </c>
       <c r="J114" s="13">
-        <v>501</v>
+        <v>399</v>
       </c>
       <c r="K114" s="13">
-        <v>1613</v>
+        <v>572.37</v>
       </c>
       <c r="L114" s="13">
-        <v>373</v>
+        <v>434</v>
       </c>
       <c r="M114" s="13">
-        <v>1230</v>
+        <v>544.24</v>
       </c>
     </row>
     <row r="115" spans="1:13">
       <c r="A115" s="10">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>25</v>
+        <v>146</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>26</v>
+        <v>143</v>
       </c>
       <c r="D115" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E115" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F115" s="13">
-        <v>778</v>
+        <v>2254</v>
       </c>
       <c r="G115" s="13">
-        <v>2523</v>
+        <v>5997</v>
       </c>
       <c r="H115" s="13">
-        <v>890</v>
+        <v>1808</v>
       </c>
       <c r="I115" s="13">
-        <v>3742</v>
+        <v>5608</v>
       </c>
       <c r="J115" s="13">
-        <v>766</v>
+        <v>1840</v>
       </c>
       <c r="K115" s="13">
-        <v>3119</v>
+        <v>3983.86</v>
       </c>
       <c r="L115" s="13">
-        <v>606</v>
+        <v>1668</v>
       </c>
       <c r="M115" s="13">
-        <v>2578</v>
+        <v>4409.6099999999997</v>
       </c>
     </row>
     <row r="116" spans="1:13">
       <c r="A116" s="10">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>48</v>
+        <v>147</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>42</v>
+        <v>143</v>
       </c>
       <c r="D116" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E116" s="13">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F116" s="13">
-        <v>92.099999999999895</v>
+        <v>2229</v>
       </c>
       <c r="G116" s="13">
-        <v>2150</v>
+        <v>6750</v>
       </c>
       <c r="H116" s="13">
-        <v>900.2</v>
+        <v>2151</v>
       </c>
       <c r="I116" s="13">
-        <v>2358</v>
+        <v>6409</v>
       </c>
       <c r="J116" s="13">
-        <v>387</v>
+        <v>2519</v>
       </c>
       <c r="K116" s="13">
-        <v>1431</v>
+        <v>5679.52</v>
       </c>
       <c r="L116" s="13">
-        <v>255</v>
+        <v>2414</v>
       </c>
       <c r="M116" s="13">
-        <v>445</v>
+        <v>5983.96</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -6447,25 +6449,25 @@
     </row>
     <row r="121" spans="1:13">
       <c r="A121" s="10">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>59</v>
+        <v>152</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>58</v>
+        <v>153</v>
       </c>
       <c r="D121" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E121" s="13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F121" s="13">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="G121" s="13">
-        <v>0</v>
+        <v>446</v>
       </c>
       <c r="H121" s="13">
         <v>0</v>
@@ -6480,308 +6482,308 @@
         <v>0</v>
       </c>
       <c r="L121" s="13">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="M121" s="13">
-        <v>0</v>
+        <v>524.52</v>
       </c>
     </row>
     <row r="122" spans="1:13">
       <c r="A122" s="10">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>62</v>
+        <v>154</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>58</v>
+        <v>153</v>
       </c>
       <c r="D122" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E122" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F122" s="13">
-        <v>1400</v>
+        <v>323.10000000000002</v>
       </c>
       <c r="G122" s="13">
-        <v>2727</v>
+        <v>420</v>
       </c>
       <c r="H122" s="13">
-        <v>1079</v>
+        <v>539</v>
       </c>
       <c r="I122" s="13">
-        <v>3055</v>
+        <v>590</v>
       </c>
       <c r="J122" s="13">
-        <v>1109</v>
+        <v>502</v>
       </c>
       <c r="K122" s="13">
-        <v>3158.38</v>
+        <v>564.71</v>
       </c>
       <c r="L122" s="13">
-        <v>1237</v>
+        <v>105</v>
       </c>
       <c r="M122" s="13">
-        <v>4543.93</v>
+        <v>208.06</v>
       </c>
     </row>
     <row r="123" spans="1:13">
       <c r="A123" s="10">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>82</v>
+        <v>155</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>83</v>
+        <v>153</v>
       </c>
       <c r="D123" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E123" s="13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F123" s="13">
-        <v>673</v>
+        <v>2410.3000000000002</v>
       </c>
       <c r="G123" s="13">
-        <v>2661</v>
+        <v>13062</v>
       </c>
       <c r="H123" s="13">
-        <v>651</v>
+        <v>2262</v>
       </c>
       <c r="I123" s="13">
-        <v>2490</v>
+        <v>16480</v>
       </c>
       <c r="J123" s="13">
-        <v>524</v>
+        <v>2037</v>
       </c>
       <c r="K123" s="13">
-        <v>2330</v>
+        <v>13128.36</v>
       </c>
       <c r="L123" s="13">
-        <v>445</v>
+        <v>1695</v>
       </c>
       <c r="M123" s="13">
-        <v>1690</v>
+        <v>9840.02</v>
       </c>
     </row>
     <row r="124" spans="1:13">
       <c r="A124" s="10">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>85</v>
+        <v>156</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>86</v>
+        <v>153</v>
       </c>
       <c r="D124" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E124" s="13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F124" s="13">
-        <v>1498</v>
+        <v>0</v>
       </c>
       <c r="G124" s="13">
-        <v>7790</v>
+        <v>0</v>
       </c>
       <c r="H124" s="13">
-        <v>830</v>
+        <v>0</v>
       </c>
       <c r="I124" s="13">
-        <v>4249</v>
+        <v>0</v>
       </c>
       <c r="J124" s="13">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="K124" s="13">
-        <v>851</v>
+        <v>1163.81</v>
       </c>
       <c r="L124" s="13">
-        <v>423</v>
+        <v>1157</v>
       </c>
       <c r="M124" s="13">
-        <v>1120.02</v>
+        <v>5494.19</v>
       </c>
     </row>
     <row r="125" spans="1:13">
       <c r="A125" s="10">
-        <v>218</v>
+        <v>123</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>262</v>
+        <v>157</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>263</v>
+        <v>153</v>
       </c>
       <c r="D125" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E125" s="13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F125" s="13">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="G125" s="13">
-        <v>0</v>
+        <v>3570</v>
       </c>
       <c r="H125" s="13">
-        <v>800</v>
+        <v>645</v>
       </c>
       <c r="I125" s="13">
-        <v>1790</v>
+        <v>3400</v>
       </c>
       <c r="J125" s="13">
-        <v>1595</v>
+        <v>1231</v>
       </c>
       <c r="K125" s="13">
-        <v>3975</v>
+        <v>7336.72</v>
       </c>
       <c r="L125" s="13">
-        <v>1492</v>
+        <v>1120</v>
       </c>
       <c r="M125" s="13">
-        <v>3995</v>
+        <v>6664.86</v>
       </c>
     </row>
     <row r="126" spans="1:13">
       <c r="A126" s="10">
-        <v>219</v>
+        <v>124</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>264</v>
+        <v>158</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>263</v>
+        <v>153</v>
       </c>
       <c r="D126" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E126" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F126" s="13">
-        <v>1652</v>
+        <v>1269</v>
       </c>
       <c r="G126" s="13">
-        <v>3530</v>
+        <v>4260</v>
       </c>
       <c r="H126" s="13">
-        <v>979</v>
+        <v>1311</v>
       </c>
       <c r="I126" s="13">
-        <v>2905</v>
+        <v>5660</v>
       </c>
       <c r="J126" s="13">
-        <v>1296</v>
+        <v>1312</v>
       </c>
       <c r="K126" s="13">
-        <v>2970</v>
+        <v>5436.83</v>
       </c>
       <c r="L126" s="13">
-        <v>1762</v>
+        <v>956</v>
       </c>
       <c r="M126" s="13">
-        <v>4310</v>
+        <v>3889.16</v>
       </c>
     </row>
     <row r="127" spans="1:13">
       <c r="A127" s="10">
-        <v>227</v>
+        <v>125</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>272</v>
+        <v>159</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>273</v>
+        <v>153</v>
       </c>
       <c r="D127" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E127" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F127" s="13">
-        <v>400.7</v>
+        <v>747</v>
       </c>
       <c r="G127" s="13">
-        <v>1780</v>
+        <v>3380</v>
       </c>
       <c r="H127" s="13">
-        <v>258.2</v>
+        <v>1454</v>
       </c>
       <c r="I127" s="13">
-        <v>1110</v>
+        <v>6430</v>
       </c>
       <c r="J127" s="13">
-        <v>307.60000000000002</v>
+        <v>1095</v>
       </c>
       <c r="K127" s="13">
-        <v>1120</v>
+        <v>4009.49</v>
       </c>
       <c r="L127" s="13">
-        <v>260.7</v>
+        <v>1307</v>
       </c>
       <c r="M127" s="13">
-        <v>803</v>
+        <v>4054.68</v>
       </c>
     </row>
     <row r="128" spans="1:13">
       <c r="A128" s="10">
-        <v>234</v>
+        <v>126</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>284</v>
+        <v>160</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>282</v>
+        <v>153</v>
       </c>
       <c r="D128" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E128" s="13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F128" s="13">
-        <v>156</v>
+        <v>1812</v>
       </c>
       <c r="G128" s="13">
-        <v>2685</v>
+        <v>11300</v>
       </c>
       <c r="H128" s="13">
-        <v>405</v>
+        <v>1406</v>
       </c>
       <c r="I128" s="13">
-        <v>2658</v>
+        <v>12615</v>
       </c>
       <c r="J128" s="13">
-        <v>14.46</v>
+        <v>1550</v>
       </c>
       <c r="K128" s="13">
-        <v>2122</v>
+        <v>10626.71</v>
       </c>
       <c r="L128" s="13">
-        <v>62</v>
+        <v>1302</v>
       </c>
       <c r="M128" s="13">
-        <v>1114.81</v>
+        <v>8621.02</v>
       </c>
     </row>
     <row r="129" spans="1:13">
       <c r="A129" s="10">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="D129" s="12" t="s">
         <v>12</v>
@@ -6790,36 +6792,36 @@
         <v>6</v>
       </c>
       <c r="F129" s="13">
-        <v>0</v>
+        <v>843</v>
       </c>
       <c r="G129" s="13">
-        <v>100</v>
+        <v>3835</v>
       </c>
       <c r="H129" s="13">
-        <v>0</v>
+        <v>707</v>
       </c>
       <c r="I129" s="13">
-        <v>0</v>
+        <v>4245</v>
       </c>
       <c r="J129" s="13">
-        <v>615</v>
+        <v>858</v>
       </c>
       <c r="K129" s="13">
-        <v>3456.86</v>
+        <v>5728.76</v>
       </c>
       <c r="L129" s="13">
-        <v>405</v>
+        <v>319</v>
       </c>
       <c r="M129" s="13">
-        <v>1421.39</v>
+        <v>6502.49</v>
       </c>
     </row>
     <row r="130" spans="1:13">
       <c r="A130" s="10">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B130" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C130" s="12" t="s">
         <v>153</v>
@@ -6828,31 +6830,31 @@
         <v>12</v>
       </c>
       <c r="E130" s="13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F130" s="13">
-        <v>843</v>
+        <v>1460</v>
       </c>
       <c r="G130" s="13">
-        <v>3835</v>
+        <v>2715</v>
       </c>
       <c r="H130" s="13">
-        <v>707</v>
+        <v>212</v>
       </c>
       <c r="I130" s="13">
-        <v>4245</v>
+        <v>175</v>
       </c>
       <c r="J130" s="13">
-        <v>858</v>
+        <v>157</v>
       </c>
       <c r="K130" s="13">
-        <v>5728.76</v>
+        <v>949.82</v>
       </c>
       <c r="L130" s="13">
-        <v>319</v>
+        <v>489</v>
       </c>
       <c r="M130" s="13">
-        <v>6502.49</v>
+        <v>732.43</v>
       </c>
     </row>
     <row r="131" spans="1:13">
@@ -7800,84 +7802,84 @@
     </row>
     <row r="154" spans="1:13">
       <c r="A154" s="10">
-        <v>60</v>
+        <v>152</v>
       </c>
       <c r="B154" s="11" t="s">
-        <v>89</v>
+        <v>186</v>
       </c>
       <c r="C154" s="12" t="s">
-        <v>86</v>
+        <v>187</v>
       </c>
       <c r="D154" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E154" s="13">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="F154" s="13">
-        <v>668</v>
+        <v>0</v>
       </c>
       <c r="G154" s="13">
-        <v>2116.4389999999999</v>
+        <v>90</v>
       </c>
       <c r="H154" s="13">
-        <v>483</v>
+        <v>3305</v>
       </c>
       <c r="I154" s="13">
-        <v>3793</v>
+        <v>1475</v>
       </c>
       <c r="J154" s="13">
-        <v>573</v>
+        <v>1274</v>
       </c>
       <c r="K154" s="13">
-        <v>1318</v>
+        <v>3428.46</v>
       </c>
       <c r="L154" s="13">
-        <v>835</v>
+        <v>1149</v>
       </c>
       <c r="M154" s="13">
-        <v>2000.25</v>
+        <v>3032.86</v>
       </c>
     </row>
     <row r="155" spans="1:13">
       <c r="A155" s="10">
-        <v>108</v>
+        <v>153</v>
       </c>
       <c r="B155" s="11" t="s">
-        <v>139</v>
+        <v>188</v>
       </c>
       <c r="C155" s="12" t="s">
-        <v>140</v>
+        <v>187</v>
       </c>
       <c r="D155" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E155" s="13">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F155" s="13">
-        <v>1487</v>
+        <v>1213</v>
       </c>
       <c r="G155" s="13">
-        <v>6023</v>
+        <v>2695</v>
       </c>
       <c r="H155" s="13">
-        <v>404</v>
+        <v>1070</v>
       </c>
       <c r="I155" s="13">
-        <v>1980</v>
+        <v>2985</v>
       </c>
       <c r="J155" s="13">
-        <v>672</v>
+        <v>1182</v>
       </c>
       <c r="K155" s="13">
-        <v>2422</v>
+        <v>2738.55</v>
       </c>
       <c r="L155" s="13">
-        <v>538</v>
+        <v>1716</v>
       </c>
       <c r="M155" s="13">
-        <v>1716.26</v>
+        <v>3460.54</v>
       </c>
     </row>
     <row r="156" spans="1:13">
@@ -9686,125 +9688,125 @@
     </row>
     <row r="200" spans="1:13">
       <c r="A200" s="10">
-        <v>110</v>
+        <v>198</v>
       </c>
       <c r="B200" s="11" t="s">
-        <v>142</v>
+        <v>234</v>
       </c>
       <c r="C200" s="12" t="s">
-        <v>143</v>
+        <v>235</v>
       </c>
       <c r="D200" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E200" s="13">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="F200" s="13">
-        <v>1832</v>
+        <v>1150</v>
       </c>
       <c r="G200" s="13">
-        <v>4986</v>
+        <v>1890</v>
       </c>
       <c r="H200" s="13">
-        <v>2113</v>
+        <v>793</v>
       </c>
       <c r="I200" s="13">
-        <v>8099</v>
+        <v>1520</v>
       </c>
       <c r="J200" s="13">
-        <v>2488</v>
+        <v>1493</v>
       </c>
       <c r="K200" s="13">
-        <v>8137.97</v>
+        <v>2562.0100000000002</v>
       </c>
       <c r="L200" s="13">
-        <v>2376</v>
+        <v>589</v>
       </c>
       <c r="M200" s="13">
-        <v>7534.54</v>
+        <v>1030.95</v>
       </c>
     </row>
     <row r="201" spans="1:13">
       <c r="A201" s="10">
-        <v>121</v>
+        <v>199</v>
       </c>
       <c r="B201" s="11" t="s">
-        <v>155</v>
+        <v>236</v>
       </c>
       <c r="C201" s="12" t="s">
-        <v>153</v>
+        <v>237</v>
       </c>
       <c r="D201" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E201" s="13">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="F201" s="13">
-        <v>2410.3000000000002</v>
+        <v>802.79999999999905</v>
       </c>
       <c r="G201" s="13">
-        <v>13062</v>
+        <v>6600</v>
       </c>
       <c r="H201" s="13">
-        <v>2262</v>
+        <v>413.70000000000101</v>
       </c>
       <c r="I201" s="13">
-        <v>16480</v>
+        <v>7700</v>
       </c>
       <c r="J201" s="13">
-        <v>2037</v>
+        <v>627.79999999999905</v>
       </c>
       <c r="K201" s="13">
-        <v>13128.36</v>
+        <v>5001</v>
       </c>
       <c r="L201" s="13">
-        <v>1695</v>
+        <v>357.5</v>
       </c>
       <c r="M201" s="13">
-        <v>9840.02</v>
+        <v>3068</v>
       </c>
     </row>
     <row r="202" spans="1:13">
       <c r="A202" s="10">
-        <v>122</v>
+        <v>200</v>
       </c>
       <c r="B202" s="11" t="s">
-        <v>156</v>
+        <v>238</v>
       </c>
       <c r="C202" s="12" t="s">
-        <v>153</v>
+        <v>237</v>
       </c>
       <c r="D202" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E202" s="13">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F202" s="13">
-        <v>0</v>
+        <v>1111</v>
       </c>
       <c r="G202" s="13">
-        <v>0</v>
+        <v>1861</v>
       </c>
       <c r="H202" s="13">
-        <v>0</v>
+        <v>817.5</v>
       </c>
       <c r="I202" s="13">
-        <v>0</v>
+        <v>1318</v>
       </c>
       <c r="J202" s="13">
-        <v>256</v>
+        <v>911.1</v>
       </c>
       <c r="K202" s="13">
-        <v>1163.81</v>
+        <v>1338</v>
       </c>
       <c r="L202" s="13">
-        <v>1157</v>
+        <v>685</v>
       </c>
       <c r="M202" s="13">
-        <v>5494.19</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="203" spans="1:13">
@@ -10055,84 +10057,84 @@
     </row>
     <row r="209" spans="1:13">
       <c r="A209" s="10">
-        <v>123</v>
+        <v>207</v>
       </c>
       <c r="B209" s="11" t="s">
-        <v>157</v>
+        <v>246</v>
       </c>
       <c r="C209" s="12" t="s">
-        <v>153</v>
+        <v>247</v>
       </c>
       <c r="D209" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E209" s="13">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="F209" s="13">
-        <v>110</v>
+        <v>1113</v>
       </c>
       <c r="G209" s="13">
-        <v>3570</v>
+        <v>11010</v>
       </c>
       <c r="H209" s="13">
-        <v>645</v>
+        <v>388</v>
       </c>
       <c r="I209" s="13">
-        <v>3400</v>
+        <v>4270</v>
       </c>
       <c r="J209" s="13">
-        <v>1231</v>
+        <v>973</v>
       </c>
       <c r="K209" s="13">
-        <v>7336.72</v>
+        <v>8480</v>
       </c>
       <c r="L209" s="13">
-        <v>1120</v>
+        <v>739</v>
       </c>
       <c r="M209" s="13">
-        <v>6664.86</v>
+        <v>6150</v>
       </c>
     </row>
     <row r="210" spans="1:13">
       <c r="A210" s="10">
-        <v>126</v>
+        <v>208</v>
       </c>
       <c r="B210" s="11" t="s">
-        <v>160</v>
+        <v>248</v>
       </c>
       <c r="C210" s="12" t="s">
-        <v>153</v>
+        <v>249</v>
       </c>
       <c r="D210" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E210" s="13">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="F210" s="13">
-        <v>1812</v>
+        <v>724</v>
       </c>
       <c r="G210" s="13">
-        <v>11300</v>
+        <v>2105</v>
       </c>
       <c r="H210" s="13">
-        <v>1406</v>
+        <v>669</v>
       </c>
       <c r="I210" s="13">
-        <v>12615</v>
+        <v>1985</v>
       </c>
       <c r="J210" s="13">
-        <v>1550</v>
+        <v>677</v>
       </c>
       <c r="K210" s="13">
-        <v>10626.71</v>
+        <v>1751.01</v>
       </c>
       <c r="L210" s="13">
-        <v>1302</v>
+        <v>654.29999999999995</v>
       </c>
       <c r="M210" s="13">
-        <v>8621.02</v>
+        <v>1622.27</v>
       </c>
     </row>
     <row r="211" spans="1:13">
@@ -10260,43 +10262,43 @@
     </row>
     <row r="214" spans="1:13">
       <c r="A214" s="10">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B214" s="11" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C214" s="12" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D214" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E214" s="13">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="F214" s="13">
-        <v>560.9</v>
+        <v>563.49999999999898</v>
       </c>
       <c r="G214" s="13">
-        <v>270</v>
+        <v>919</v>
       </c>
       <c r="H214" s="13">
-        <v>1386.1</v>
+        <v>409.80000000000098</v>
       </c>
       <c r="I214" s="13">
-        <v>4813</v>
+        <v>670</v>
       </c>
       <c r="J214" s="13">
-        <v>962.5</v>
+        <v>1031.2</v>
       </c>
       <c r="K214" s="13">
-        <v>5511</v>
+        <v>3881</v>
       </c>
       <c r="L214" s="13">
-        <v>982.8</v>
+        <v>945.4</v>
       </c>
       <c r="M214" s="13">
-        <v>5457</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="215" spans="1:13">
@@ -10424,43 +10426,43 @@
     </row>
     <row r="218" spans="1:13">
       <c r="A218" s="10">
-        <v>25</v>
+        <v>216</v>
       </c>
       <c r="B218" s="11" t="s">
-        <v>46</v>
+        <v>259</v>
       </c>
       <c r="C218" s="12" t="s">
-        <v>42</v>
+        <v>260</v>
       </c>
       <c r="D218" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E218" s="13">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="F218" s="13">
-        <v>826.7</v>
+        <v>560.9</v>
       </c>
       <c r="G218" s="13">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="H218" s="13">
-        <v>0</v>
+        <v>1386.1</v>
       </c>
       <c r="I218" s="13">
-        <v>0</v>
+        <v>4813</v>
       </c>
       <c r="J218" s="13">
-        <v>148.19999999999999</v>
+        <v>962.5</v>
       </c>
       <c r="K218" s="13">
-        <v>0</v>
+        <v>5511</v>
       </c>
       <c r="L218" s="13">
-        <v>135.1</v>
+        <v>982.8</v>
       </c>
       <c r="M218" s="13">
-        <v>0</v>
+        <v>5457</v>
       </c>
     </row>
     <row r="219" spans="1:13">
@@ -10506,166 +10508,166 @@
     </row>
     <row r="220" spans="1:13">
       <c r="A220" s="10">
-        <v>58</v>
+        <v>218</v>
       </c>
       <c r="B220" s="11" t="s">
-        <v>87</v>
+        <v>262</v>
       </c>
       <c r="C220" s="12" t="s">
-        <v>86</v>
+        <v>263</v>
       </c>
       <c r="D220" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E220" s="13">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F220" s="13">
-        <v>1460</v>
+        <v>0</v>
       </c>
       <c r="G220" s="13">
-        <v>6698</v>
+        <v>0</v>
       </c>
       <c r="H220" s="13">
-        <v>1154</v>
+        <v>800</v>
       </c>
       <c r="I220" s="13">
-        <v>7788</v>
+        <v>1790</v>
       </c>
       <c r="J220" s="13">
-        <v>1395</v>
+        <v>1595</v>
       </c>
       <c r="K220" s="13">
-        <v>6898</v>
+        <v>3975</v>
       </c>
       <c r="L220" s="13">
-        <v>2017</v>
+        <v>1492</v>
       </c>
       <c r="M220" s="13">
-        <v>10311.280000000001</v>
+        <v>3995</v>
       </c>
     </row>
     <row r="221" spans="1:13">
       <c r="A221" s="10">
-        <v>119</v>
+        <v>219</v>
       </c>
       <c r="B221" s="11" t="s">
-        <v>152</v>
+        <v>264</v>
       </c>
       <c r="C221" s="12" t="s">
-        <v>153</v>
+        <v>263</v>
       </c>
       <c r="D221" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E221" s="13">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F221" s="13">
-        <v>123</v>
+        <v>1652</v>
       </c>
       <c r="G221" s="13">
-        <v>446</v>
+        <v>3530</v>
       </c>
       <c r="H221" s="13">
-        <v>0</v>
+        <v>979</v>
       </c>
       <c r="I221" s="13">
-        <v>0</v>
+        <v>2905</v>
       </c>
       <c r="J221" s="13">
-        <v>0</v>
+        <v>1296</v>
       </c>
       <c r="K221" s="13">
-        <v>0</v>
+        <v>2970</v>
       </c>
       <c r="L221" s="13">
-        <v>81</v>
+        <v>1762</v>
       </c>
       <c r="M221" s="13">
-        <v>524.52</v>
+        <v>4310</v>
       </c>
     </row>
     <row r="222" spans="1:13">
       <c r="A222" s="10">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="B222" s="11" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="C222" s="12" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="D222" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E222" s="13">
-        <v>10</v>
+        <v>3.5</v>
       </c>
       <c r="F222" s="13">
-        <v>563.49999999999898</v>
+        <v>1203</v>
       </c>
       <c r="G222" s="13">
-        <v>919</v>
+        <v>4045</v>
       </c>
       <c r="H222" s="13">
-        <v>409.80000000000098</v>
+        <v>1033</v>
       </c>
       <c r="I222" s="13">
-        <v>670</v>
+        <v>4495</v>
       </c>
       <c r="J222" s="13">
-        <v>1031.2</v>
+        <v>972</v>
       </c>
       <c r="K222" s="13">
-        <v>3881</v>
+        <v>3210</v>
       </c>
       <c r="L222" s="13">
-        <v>945.4</v>
+        <v>1262</v>
       </c>
       <c r="M222" s="13">
-        <v>3430</v>
+        <v>4425</v>
       </c>
     </row>
     <row r="223" spans="1:13">
       <c r="A223" s="10">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B223" s="11" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="C223" s="12" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="D223" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E223" s="13">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F223" s="13">
-        <v>561.6</v>
+        <v>1234</v>
       </c>
       <c r="G223" s="13">
-        <v>6460</v>
+        <v>3025</v>
       </c>
       <c r="H223" s="13">
-        <v>836.1</v>
+        <v>1409</v>
       </c>
       <c r="I223" s="13">
-        <v>9760</v>
+        <v>5760</v>
       </c>
       <c r="J223" s="13">
-        <v>748.9</v>
+        <v>1146</v>
       </c>
       <c r="K223" s="13">
-        <v>7440</v>
+        <v>5265</v>
       </c>
       <c r="L223" s="13">
-        <v>903.6</v>
+        <v>1226</v>
       </c>
       <c r="M223" s="13">
-        <v>10378</v>
+        <v>4775</v>
       </c>
     </row>
     <row r="224" spans="1:13">
@@ -10875,43 +10877,43 @@
     </row>
     <row r="229" spans="1:13">
       <c r="A229" s="10">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="B229" s="11" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="C229" s="12" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="D229" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E229" s="13">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="F229" s="13">
-        <v>1009</v>
+        <v>400.7</v>
       </c>
       <c r="G229" s="13">
-        <v>29503</v>
+        <v>1780</v>
       </c>
       <c r="H229" s="13">
-        <v>168</v>
+        <v>258.2</v>
       </c>
       <c r="I229" s="13">
-        <v>3450</v>
+        <v>1110</v>
       </c>
       <c r="J229" s="13">
-        <v>238</v>
+        <v>307.60000000000002</v>
       </c>
       <c r="K229" s="13">
-        <v>2875</v>
+        <v>1120</v>
       </c>
       <c r="L229" s="13">
-        <v>572</v>
+        <v>260.7</v>
       </c>
       <c r="M229" s="13">
-        <v>7161</v>
+        <v>803</v>
       </c>
     </row>
     <row r="230" spans="1:13">
@@ -10957,43 +10959,43 @@
     </row>
     <row r="231" spans="1:13">
       <c r="A231" s="10">
-        <v>20</v>
+        <v>229</v>
       </c>
       <c r="B231" s="11" t="s">
-        <v>39</v>
+        <v>275</v>
       </c>
       <c r="C231" s="12" t="s">
-        <v>40</v>
+        <v>276</v>
       </c>
       <c r="D231" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E231" s="13">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="F231" s="13">
-        <v>97</v>
+        <v>1307</v>
       </c>
       <c r="G231" s="13">
-        <v>550</v>
+        <v>1140</v>
       </c>
       <c r="H231" s="13">
-        <v>572</v>
+        <v>1180</v>
       </c>
       <c r="I231" s="13">
-        <v>6700</v>
+        <v>470</v>
       </c>
       <c r="J231" s="13">
-        <v>580</v>
+        <v>699</v>
       </c>
       <c r="K231" s="13">
-        <v>5953.49</v>
+        <v>1150</v>
       </c>
       <c r="L231" s="13">
-        <v>379.5</v>
+        <v>813</v>
       </c>
       <c r="M231" s="13">
-        <v>153.49</v>
+        <v>13265</v>
       </c>
     </row>
     <row r="232" spans="1:13">
@@ -11039,166 +11041,166 @@
     </row>
     <row r="233" spans="1:13">
       <c r="A233" s="10">
-        <v>32</v>
+        <v>231</v>
       </c>
       <c r="B233" s="11" t="s">
-        <v>54</v>
+        <v>279</v>
       </c>
       <c r="C233" s="12" t="s">
-        <v>55</v>
+        <v>280</v>
       </c>
       <c r="D233" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E233" s="13">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F233" s="13">
-        <v>957.7</v>
+        <v>561.6</v>
       </c>
       <c r="G233" s="13">
-        <v>38710</v>
+        <v>6460</v>
       </c>
       <c r="H233" s="13">
-        <v>845.2</v>
+        <v>836.1</v>
       </c>
       <c r="I233" s="13">
-        <v>9900</v>
+        <v>9760</v>
       </c>
       <c r="J233" s="13">
-        <v>1081.8</v>
+        <v>748.9</v>
       </c>
       <c r="K233" s="13">
-        <v>13500</v>
+        <v>7440</v>
       </c>
       <c r="L233" s="13">
-        <v>1332.3</v>
+        <v>903.6</v>
       </c>
       <c r="M233" s="13">
-        <v>14360</v>
+        <v>10378</v>
       </c>
     </row>
     <row r="234" spans="1:13">
       <c r="A234" s="10">
-        <v>104</v>
+        <v>232</v>
       </c>
       <c r="B234" s="11" t="s">
-        <v>133</v>
+        <v>281</v>
       </c>
       <c r="C234" s="12" t="s">
-        <v>134</v>
+        <v>282</v>
       </c>
       <c r="D234" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E234" s="13">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="F234" s="13">
-        <v>701</v>
+        <v>629</v>
       </c>
       <c r="G234" s="13">
-        <v>4800</v>
+        <v>1150</v>
       </c>
       <c r="H234" s="13">
-        <v>903</v>
+        <v>0</v>
       </c>
       <c r="I234" s="13">
-        <v>5530</v>
+        <v>0</v>
       </c>
       <c r="J234" s="13">
-        <v>924</v>
+        <v>0</v>
       </c>
       <c r="K234" s="13">
-        <v>6750</v>
+        <v>0</v>
       </c>
       <c r="L234" s="13">
-        <v>735</v>
+        <v>548</v>
       </c>
       <c r="M234" s="13">
-        <v>7800</v>
+        <v>967.17</v>
       </c>
     </row>
     <row r="235" spans="1:13">
       <c r="A235" s="10">
-        <v>107</v>
+        <v>233</v>
       </c>
       <c r="B235" s="11" t="s">
-        <v>138</v>
+        <v>283</v>
       </c>
       <c r="C235" s="12" t="s">
-        <v>137</v>
+        <v>282</v>
       </c>
       <c r="D235" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E235" s="13">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="F235" s="13">
-        <v>2521</v>
+        <v>0</v>
       </c>
       <c r="G235" s="13">
-        <v>20900</v>
+        <v>0</v>
       </c>
       <c r="H235" s="13">
-        <v>2183</v>
+        <v>0</v>
       </c>
       <c r="I235" s="13">
-        <v>26575</v>
+        <v>0</v>
       </c>
       <c r="J235" s="13">
-        <v>2340</v>
+        <v>0</v>
       </c>
       <c r="K235" s="13">
-        <v>19678</v>
+        <v>630</v>
       </c>
       <c r="L235" s="13">
-        <v>2188</v>
+        <v>0</v>
       </c>
       <c r="M235" s="13">
-        <v>25459.79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:13">
       <c r="A236" s="10">
-        <v>199</v>
+        <v>234</v>
       </c>
       <c r="B236" s="11" t="s">
-        <v>236</v>
+        <v>284</v>
       </c>
       <c r="C236" s="12" t="s">
-        <v>237</v>
+        <v>282</v>
       </c>
       <c r="D236" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E236" s="13">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="F236" s="13">
-        <v>802.79999999999905</v>
+        <v>156</v>
       </c>
       <c r="G236" s="13">
-        <v>6600</v>
+        <v>2685</v>
       </c>
       <c r="H236" s="13">
-        <v>413.70000000000101</v>
+        <v>405</v>
       </c>
       <c r="I236" s="13">
-        <v>7700</v>
+        <v>2658</v>
       </c>
       <c r="J236" s="13">
-        <v>627.79999999999905</v>
+        <v>14.46</v>
       </c>
       <c r="K236" s="13">
-        <v>5001</v>
+        <v>2122</v>
       </c>
       <c r="L236" s="13">
-        <v>357.5</v>
+        <v>62</v>
       </c>
       <c r="M236" s="13">
-        <v>3068</v>
+        <v>1114.81</v>
       </c>
     </row>
     <row r="237" spans="1:13">
@@ -11531,43 +11533,43 @@
     </row>
     <row r="245" spans="1:13">
       <c r="A245" s="10">
-        <v>207</v>
+        <v>243</v>
       </c>
       <c r="B245" s="11" t="s">
-        <v>246</v>
+        <v>294</v>
       </c>
       <c r="C245" s="12" t="s">
-        <v>247</v>
+        <v>293</v>
       </c>
       <c r="D245" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E245" s="13">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F245" s="13">
-        <v>1113</v>
+        <v>1009</v>
       </c>
       <c r="G245" s="13">
-        <v>11010</v>
+        <v>29503</v>
       </c>
       <c r="H245" s="13">
-        <v>388</v>
+        <v>168</v>
       </c>
       <c r="I245" s="13">
-        <v>4270</v>
+        <v>3450</v>
       </c>
       <c r="J245" s="13">
-        <v>973</v>
+        <v>238</v>
       </c>
       <c r="K245" s="13">
-        <v>8480</v>
+        <v>2875</v>
       </c>
       <c r="L245" s="13">
-        <v>739</v>
+        <v>572</v>
       </c>
       <c r="M245" s="13">
-        <v>6150</v>
+        <v>7161</v>
       </c>
     </row>
     <row r="246" spans="1:13">
@@ -11736,8 +11738,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:M249" xr:uid="{5915B8A4-606E-4D98-A929-6F2AE5EE112A}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:M245">
-      <sortCondition ref="E2:E249"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:M249">
+      <sortCondition ref="A2:A249"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0" right="0" top="0.39370000000000011" bottom="0.39370000000000011" header="0" footer="0"/>

--- a/cost & bbm 2022 sd 2025.xlsx
+++ b/cost & bbm 2022 sd 2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Downloads\SPIL\bbm\Analisa BBM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BBB8286-B7E7-49DB-85FB-586F90FB01E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343AA3BC-120B-497E-82DC-3C03E521B46E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{F88CA839-DB7F-4E60-9CFF-046C703DC5B0}"/>
   </bookViews>
@@ -1523,10 +1523,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5915B8A4-606E-4D98-A929-6F2AE5EE112A}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:M249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1691,7 +1692,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" hidden="1">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -1732,7 +1733,7 @@
         <v>8206</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" hidden="1">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -1814,7 +1815,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" hidden="1">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -1855,7 +1856,7 @@
         <v>33100</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" hidden="1">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -1896,7 +1897,7 @@
         <v>13400</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" hidden="1">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -1937,7 +1938,7 @@
         <v>7300</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" hidden="1">
       <c r="A11" s="10">
         <v>9</v>
       </c>
@@ -1978,7 +1979,7 @@
         <v>8350</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" hidden="1">
       <c r="A12" s="10">
         <v>10</v>
       </c>
@@ -2060,7 +2061,7 @@
         <v>2578</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" hidden="1">
       <c r="A14" s="10">
         <v>12</v>
       </c>
@@ -2101,7 +2102,7 @@
         <v>41237</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" hidden="1">
       <c r="A15" s="10">
         <v>13</v>
       </c>
@@ -2142,7 +2143,7 @@
         <v>16106</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" hidden="1">
       <c r="A16" s="10">
         <v>14</v>
       </c>
@@ -2183,7 +2184,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" hidden="1">
       <c r="A17" s="10">
         <v>15</v>
       </c>
@@ -2224,7 +2225,7 @@
         <v>3803</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" hidden="1">
       <c r="A18" s="10">
         <v>16</v>
       </c>
@@ -2265,7 +2266,7 @@
         <v>8623</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" hidden="1">
       <c r="A19" s="10">
         <v>17</v>
       </c>
@@ -2306,7 +2307,7 @@
         <v>65268</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" hidden="1">
       <c r="A20" s="10">
         <v>18</v>
       </c>
@@ -2347,7 +2348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" hidden="1">
       <c r="A21" s="10">
         <v>19</v>
       </c>
@@ -2716,7 +2717,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" hidden="1">
       <c r="A30" s="10">
         <v>28</v>
       </c>
@@ -2757,7 +2758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" hidden="1">
       <c r="A31" s="10">
         <v>29</v>
       </c>
@@ -2798,7 +2799,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" hidden="1">
       <c r="A32" s="10">
         <v>30</v>
       </c>
@@ -2921,7 +2922,7 @@
         <v>14360</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" hidden="1">
       <c r="A35" s="10">
         <v>33</v>
       </c>
@@ -3208,7 +3209,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" hidden="1">
       <c r="A42" s="10">
         <v>40</v>
       </c>
@@ -3249,7 +3250,7 @@
         <v>53056.23</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" hidden="1">
       <c r="A43" s="10">
         <v>41</v>
       </c>
@@ -3577,7 +3578,7 @@
         <v>4598.4799999999996</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" hidden="1">
       <c r="A51" s="10">
         <v>49</v>
       </c>
@@ -3618,7 +3619,7 @@
         <v>71353.86</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" hidden="1">
       <c r="A52" s="10">
         <v>50</v>
       </c>
@@ -3659,7 +3660,7 @@
         <v>75409.09</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" hidden="1">
       <c r="A53" s="10">
         <v>51</v>
       </c>
@@ -3700,7 +3701,7 @@
         <v>28014</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" hidden="1">
       <c r="A54" s="10">
         <v>52</v>
       </c>
@@ -3741,7 +3742,7 @@
         <v>65248.31</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" hidden="1">
       <c r="A55" s="10">
         <v>53</v>
       </c>
@@ -3782,7 +3783,7 @@
         <v>21269.75</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" hidden="1">
       <c r="A56" s="10">
         <v>54</v>
       </c>
@@ -3864,7 +3865,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" hidden="1">
       <c r="A58" s="10">
         <v>56</v>
       </c>
@@ -4069,7 +4070,7 @@
         <v>2000.25</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" hidden="1">
       <c r="A63" s="10">
         <v>61</v>
       </c>
@@ -4110,7 +4111,7 @@
         <v>48748.24</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" hidden="1">
       <c r="A64" s="10">
         <v>62</v>
       </c>
@@ -4151,7 +4152,7 @@
         <v>42290.71</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" hidden="1">
       <c r="A65" s="10">
         <v>63</v>
       </c>
@@ -4192,7 +4193,7 @@
         <v>9229.76</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" hidden="1">
       <c r="A66" s="10">
         <v>64</v>
       </c>
@@ -4233,7 +4234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" hidden="1">
       <c r="A67" s="10">
         <v>65</v>
       </c>
@@ -4274,7 +4275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" hidden="1">
       <c r="A68" s="10">
         <v>66</v>
       </c>
@@ -4315,7 +4316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" hidden="1">
       <c r="A69" s="10">
         <v>67</v>
       </c>
@@ -4356,7 +4357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" hidden="1">
       <c r="A70" s="10">
         <v>68</v>
       </c>
@@ -4397,7 +4398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" hidden="1">
       <c r="A71" s="10">
         <v>69</v>
       </c>
@@ -4438,7 +4439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" hidden="1">
       <c r="A72" s="10">
         <v>70</v>
       </c>
@@ -4479,7 +4480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" hidden="1">
       <c r="A73" s="10">
         <v>71</v>
       </c>
@@ -4520,7 +4521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" hidden="1">
       <c r="A74" s="10">
         <v>72</v>
       </c>
@@ -4561,7 +4562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" hidden="1">
       <c r="A75" s="10">
         <v>73</v>
       </c>
@@ -4602,7 +4603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" hidden="1">
       <c r="A76" s="10">
         <v>74</v>
       </c>
@@ -4643,7 +4644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" hidden="1">
       <c r="A77" s="10">
         <v>75</v>
       </c>
@@ -4684,7 +4685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" hidden="1">
       <c r="A78" s="10">
         <v>76</v>
       </c>
@@ -4725,7 +4726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" hidden="1">
       <c r="A79" s="10">
         <v>77</v>
       </c>
@@ -4766,7 +4767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" hidden="1">
       <c r="A80" s="10">
         <v>78</v>
       </c>
@@ -4807,7 +4808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" hidden="1">
       <c r="A81" s="10">
         <v>79</v>
       </c>
@@ -4848,7 +4849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" hidden="1">
       <c r="A82" s="10">
         <v>80</v>
       </c>
@@ -4889,7 +4890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" hidden="1">
       <c r="A83" s="10">
         <v>81</v>
       </c>
@@ -4930,7 +4931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" hidden="1">
       <c r="A84" s="10">
         <v>82</v>
       </c>
@@ -4971,7 +4972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" hidden="1">
       <c r="A85" s="10">
         <v>83</v>
       </c>
@@ -5012,7 +5013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" hidden="1">
       <c r="A86" s="10">
         <v>84</v>
       </c>
@@ -5053,7 +5054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" hidden="1">
       <c r="A87" s="10">
         <v>85</v>
       </c>
@@ -5094,7 +5095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" hidden="1">
       <c r="A88" s="10">
         <v>86</v>
       </c>
@@ -5135,7 +5136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" hidden="1">
       <c r="A89" s="10">
         <v>87</v>
       </c>
@@ -5176,7 +5177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" hidden="1">
       <c r="A90" s="10">
         <v>88</v>
       </c>
@@ -5217,7 +5218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" hidden="1">
       <c r="A91" s="10">
         <v>89</v>
       </c>
@@ -5258,7 +5259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" hidden="1">
       <c r="A92" s="10">
         <v>90</v>
       </c>
@@ -5299,7 +5300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" hidden="1">
       <c r="A93" s="10">
         <v>91</v>
       </c>
@@ -5340,7 +5341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" hidden="1">
       <c r="A94" s="10">
         <v>92</v>
       </c>
@@ -5381,7 +5382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" hidden="1">
       <c r="A95" s="10">
         <v>93</v>
       </c>
@@ -5422,7 +5423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" hidden="1">
       <c r="A96" s="10">
         <v>94</v>
       </c>
@@ -5463,7 +5464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" hidden="1">
       <c r="A97" s="10">
         <v>95</v>
       </c>
@@ -5504,7 +5505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" hidden="1">
       <c r="A98" s="10">
         <v>96</v>
       </c>
@@ -5545,7 +5546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" hidden="1">
       <c r="A99" s="10">
         <v>97</v>
       </c>
@@ -5586,7 +5587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" hidden="1">
       <c r="A100" s="10">
         <v>98</v>
       </c>
@@ -5627,7 +5628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" hidden="1">
       <c r="A101" s="10">
         <v>99</v>
       </c>
@@ -5668,7 +5669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" hidden="1">
       <c r="A102" s="10">
         <v>100</v>
       </c>
@@ -5709,7 +5710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" hidden="1">
       <c r="A103" s="10">
         <v>101</v>
       </c>
@@ -5750,7 +5751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" hidden="1">
       <c r="A104" s="10">
         <v>102</v>
       </c>
@@ -5791,7 +5792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" hidden="1">
       <c r="A105" s="10">
         <v>103</v>
       </c>
@@ -5873,7 +5874,7 @@
         <v>7800</v>
       </c>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" hidden="1">
       <c r="A107" s="10">
         <v>105</v>
       </c>
@@ -6037,7 +6038,7 @@
         <v>1716.26</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" hidden="1">
       <c r="A111" s="10">
         <v>109</v>
       </c>
@@ -6283,7 +6284,7 @@
         <v>5983.96</v>
       </c>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:13" hidden="1">
       <c r="A117" s="10">
         <v>115</v>
       </c>
@@ -6324,7 +6325,7 @@
         <v>53799.77</v>
       </c>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:13" hidden="1">
       <c r="A118" s="10">
         <v>116</v>
       </c>
@@ -6365,7 +6366,7 @@
         <v>56153.5</v>
       </c>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:13" hidden="1">
       <c r="A119" s="10">
         <v>117</v>
       </c>
@@ -6406,7 +6407,7 @@
         <v>40767.56</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:13" hidden="1">
       <c r="A120" s="10">
         <v>118</v>
       </c>
@@ -6857,7 +6858,7 @@
         <v>732.43</v>
       </c>
     </row>
-    <row r="131" spans="1:13">
+    <row r="131" spans="1:13" hidden="1">
       <c r="A131" s="10">
         <v>129</v>
       </c>
@@ -6898,7 +6899,7 @@
         <v>30968.76</v>
       </c>
     </row>
-    <row r="132" spans="1:13">
+    <row r="132" spans="1:13" hidden="1">
       <c r="A132" s="10">
         <v>130</v>
       </c>
@@ -6939,7 +6940,7 @@
         <v>55283.76</v>
       </c>
     </row>
-    <row r="133" spans="1:13">
+    <row r="133" spans="1:13" hidden="1">
       <c r="A133" s="10">
         <v>131</v>
       </c>
@@ -6980,7 +6981,7 @@
         <v>67487.13</v>
       </c>
     </row>
-    <row r="134" spans="1:13">
+    <row r="134" spans="1:13" hidden="1">
       <c r="A134" s="10">
         <v>132</v>
       </c>
@@ -7021,7 +7022,7 @@
         <v>22380.07</v>
       </c>
     </row>
-    <row r="135" spans="1:13">
+    <row r="135" spans="1:13" hidden="1">
       <c r="A135" s="10">
         <v>133</v>
       </c>
@@ -7062,7 +7063,7 @@
         <v>28029.360000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:13">
+    <row r="136" spans="1:13" hidden="1">
       <c r="A136" s="10">
         <v>134</v>
       </c>
@@ -7103,7 +7104,7 @@
         <v>21698.07</v>
       </c>
     </row>
-    <row r="137" spans="1:13">
+    <row r="137" spans="1:13" hidden="1">
       <c r="A137" s="10">
         <v>135</v>
       </c>
@@ -7144,7 +7145,7 @@
         <v>29460.33</v>
       </c>
     </row>
-    <row r="138" spans="1:13">
+    <row r="138" spans="1:13" hidden="1">
       <c r="A138" s="10">
         <v>136</v>
       </c>
@@ -7185,7 +7186,7 @@
         <v>21116.29</v>
       </c>
     </row>
-    <row r="139" spans="1:13">
+    <row r="139" spans="1:13" hidden="1">
       <c r="A139" s="10">
         <v>137</v>
       </c>
@@ -7226,7 +7227,7 @@
         <v>23254.18</v>
       </c>
     </row>
-    <row r="140" spans="1:13">
+    <row r="140" spans="1:13" hidden="1">
       <c r="A140" s="10">
         <v>138</v>
       </c>
@@ -7267,7 +7268,7 @@
         <v>25220.51</v>
       </c>
     </row>
-    <row r="141" spans="1:13">
+    <row r="141" spans="1:13" hidden="1">
       <c r="A141" s="10">
         <v>139</v>
       </c>
@@ -7308,7 +7309,7 @@
         <v>24269.01</v>
       </c>
     </row>
-    <row r="142" spans="1:13">
+    <row r="142" spans="1:13" hidden="1">
       <c r="A142" s="10">
         <v>140</v>
       </c>
@@ -7349,7 +7350,7 @@
         <v>22840.07</v>
       </c>
     </row>
-    <row r="143" spans="1:13">
+    <row r="143" spans="1:13" hidden="1">
       <c r="A143" s="10">
         <v>141</v>
       </c>
@@ -7390,7 +7391,7 @@
         <v>27354.86</v>
       </c>
     </row>
-    <row r="144" spans="1:13">
+    <row r="144" spans="1:13" hidden="1">
       <c r="A144" s="10">
         <v>142</v>
       </c>
@@ -7431,7 +7432,7 @@
         <v>24348.5</v>
       </c>
     </row>
-    <row r="145" spans="1:13">
+    <row r="145" spans="1:13" hidden="1">
       <c r="A145" s="10">
         <v>143</v>
       </c>
@@ -7472,7 +7473,7 @@
         <v>21559.5</v>
       </c>
     </row>
-    <row r="146" spans="1:13">
+    <row r="146" spans="1:13" hidden="1">
       <c r="A146" s="10">
         <v>144</v>
       </c>
@@ -7513,7 +7514,7 @@
         <v>24883.66</v>
       </c>
     </row>
-    <row r="147" spans="1:13">
+    <row r="147" spans="1:13" hidden="1">
       <c r="A147" s="10">
         <v>145</v>
       </c>
@@ -7554,7 +7555,7 @@
         <v>23457.69</v>
       </c>
     </row>
-    <row r="148" spans="1:13">
+    <row r="148" spans="1:13" hidden="1">
       <c r="A148" s="10">
         <v>146</v>
       </c>
@@ -7595,7 +7596,7 @@
         <v>8679.1200000000008</v>
       </c>
     </row>
-    <row r="149" spans="1:13">
+    <row r="149" spans="1:13" hidden="1">
       <c r="A149" s="10">
         <v>147</v>
       </c>
@@ -7636,7 +7637,7 @@
         <v>26275.919999999998</v>
       </c>
     </row>
-    <row r="150" spans="1:13">
+    <row r="150" spans="1:13" hidden="1">
       <c r="A150" s="10">
         <v>148</v>
       </c>
@@ -7677,7 +7678,7 @@
         <v>19255.36</v>
       </c>
     </row>
-    <row r="151" spans="1:13">
+    <row r="151" spans="1:13" hidden="1">
       <c r="A151" s="10">
         <v>149</v>
       </c>
@@ -7718,7 +7719,7 @@
         <v>22348.15</v>
       </c>
     </row>
-    <row r="152" spans="1:13">
+    <row r="152" spans="1:13" hidden="1">
       <c r="A152" s="10">
         <v>150</v>
       </c>
@@ -7759,7 +7760,7 @@
         <v>15899.56</v>
       </c>
     </row>
-    <row r="153" spans="1:13">
+    <row r="153" spans="1:13" hidden="1">
       <c r="A153" s="10">
         <v>151</v>
       </c>
@@ -7882,7 +7883,7 @@
         <v>3460.54</v>
       </c>
     </row>
-    <row r="156" spans="1:13">
+    <row r="156" spans="1:13" hidden="1">
       <c r="A156" s="10">
         <v>154</v>
       </c>
@@ -7923,7 +7924,7 @@
         <v>35674.910000000003</v>
       </c>
     </row>
-    <row r="157" spans="1:13">
+    <row r="157" spans="1:13" hidden="1">
       <c r="A157" s="10">
         <v>155</v>
       </c>
@@ -7964,7 +7965,7 @@
         <v>62980.17</v>
       </c>
     </row>
-    <row r="158" spans="1:13">
+    <row r="158" spans="1:13" hidden="1">
       <c r="A158" s="10">
         <v>156</v>
       </c>
@@ -8005,7 +8006,7 @@
         <v>44232.32</v>
       </c>
     </row>
-    <row r="159" spans="1:13">
+    <row r="159" spans="1:13" hidden="1">
       <c r="A159" s="10">
         <v>157</v>
       </c>
@@ -8046,7 +8047,7 @@
         <v>17592.93</v>
       </c>
     </row>
-    <row r="160" spans="1:13">
+    <row r="160" spans="1:13" hidden="1">
       <c r="A160" s="10">
         <v>158</v>
       </c>
@@ -8087,7 +8088,7 @@
         <v>10413.35</v>
       </c>
     </row>
-    <row r="161" spans="1:13">
+    <row r="161" spans="1:13" hidden="1">
       <c r="A161" s="10">
         <v>159</v>
       </c>
@@ -8128,7 +8129,7 @@
         <v>15105.21</v>
       </c>
     </row>
-    <row r="162" spans="1:13">
+    <row r="162" spans="1:13" hidden="1">
       <c r="A162" s="10">
         <v>160</v>
       </c>
@@ -8169,7 +8170,7 @@
         <v>7373.44</v>
       </c>
     </row>
-    <row r="163" spans="1:13">
+    <row r="163" spans="1:13" hidden="1">
       <c r="A163" s="10">
         <v>161</v>
       </c>
@@ -8210,7 +8211,7 @@
         <v>13102.17</v>
       </c>
     </row>
-    <row r="164" spans="1:13">
+    <row r="164" spans="1:13" hidden="1">
       <c r="A164" s="10">
         <v>162</v>
       </c>
@@ -8251,7 +8252,7 @@
         <v>17867.61</v>
       </c>
     </row>
-    <row r="165" spans="1:13">
+    <row r="165" spans="1:13" hidden="1">
       <c r="A165" s="10">
         <v>163</v>
       </c>
@@ -8292,7 +8293,7 @@
         <v>20354.419999999998</v>
       </c>
     </row>
-    <row r="166" spans="1:13">
+    <row r="166" spans="1:13" hidden="1">
       <c r="A166" s="10">
         <v>164</v>
       </c>
@@ -8333,7 +8334,7 @@
         <v>21161.81</v>
       </c>
     </row>
-    <row r="167" spans="1:13">
+    <row r="167" spans="1:13" hidden="1">
       <c r="A167" s="10">
         <v>165</v>
       </c>
@@ -8374,7 +8375,7 @@
         <v>18764.73</v>
       </c>
     </row>
-    <row r="168" spans="1:13">
+    <row r="168" spans="1:13" hidden="1">
       <c r="A168" s="10">
         <v>166</v>
       </c>
@@ -8415,7 +8416,7 @@
         <v>21113.72</v>
       </c>
     </row>
-    <row r="169" spans="1:13">
+    <row r="169" spans="1:13" hidden="1">
       <c r="A169" s="10">
         <v>167</v>
       </c>
@@ -8456,7 +8457,7 @@
         <v>19394.189999999999</v>
       </c>
     </row>
-    <row r="170" spans="1:13">
+    <row r="170" spans="1:13" hidden="1">
       <c r="A170" s="10">
         <v>168</v>
       </c>
@@ -8497,7 +8498,7 @@
         <v>18676.830000000002</v>
       </c>
     </row>
-    <row r="171" spans="1:13">
+    <row r="171" spans="1:13" hidden="1">
       <c r="A171" s="10">
         <v>169</v>
       </c>
@@ -8538,7 +8539,7 @@
         <v>19190.900000000001</v>
       </c>
     </row>
-    <row r="172" spans="1:13">
+    <row r="172" spans="1:13" hidden="1">
       <c r="A172" s="10">
         <v>170</v>
       </c>
@@ -8579,7 +8580,7 @@
         <v>15926.21</v>
       </c>
     </row>
-    <row r="173" spans="1:13">
+    <row r="173" spans="1:13" hidden="1">
       <c r="A173" s="10">
         <v>171</v>
       </c>
@@ -8620,7 +8621,7 @@
         <v>18678.04</v>
       </c>
     </row>
-    <row r="174" spans="1:13">
+    <row r="174" spans="1:13" hidden="1">
       <c r="A174" s="10">
         <v>172</v>
       </c>
@@ -8661,7 +8662,7 @@
         <v>17269.560000000001</v>
       </c>
     </row>
-    <row r="175" spans="1:13">
+    <row r="175" spans="1:13" hidden="1">
       <c r="A175" s="10">
         <v>173</v>
       </c>
@@ -8702,7 +8703,7 @@
         <v>17762.47</v>
       </c>
     </row>
-    <row r="176" spans="1:13">
+    <row r="176" spans="1:13" hidden="1">
       <c r="A176" s="10">
         <v>174</v>
       </c>
@@ -8743,7 +8744,7 @@
         <v>18121.54</v>
       </c>
     </row>
-    <row r="177" spans="1:13">
+    <row r="177" spans="1:13" hidden="1">
       <c r="A177" s="10">
         <v>175</v>
       </c>
@@ -8784,7 +8785,7 @@
         <v>16727.669999999998</v>
       </c>
     </row>
-    <row r="178" spans="1:13">
+    <row r="178" spans="1:13" hidden="1">
       <c r="A178" s="10">
         <v>176</v>
       </c>
@@ -8825,7 +8826,7 @@
         <v>18228.23</v>
       </c>
     </row>
-    <row r="179" spans="1:13">
+    <row r="179" spans="1:13" hidden="1">
       <c r="A179" s="10">
         <v>177</v>
       </c>
@@ -8866,7 +8867,7 @@
         <v>20024.95</v>
       </c>
     </row>
-    <row r="180" spans="1:13">
+    <row r="180" spans="1:13" hidden="1">
       <c r="A180" s="10">
         <v>178</v>
       </c>
@@ -8907,7 +8908,7 @@
         <v>18821.18</v>
       </c>
     </row>
-    <row r="181" spans="1:13">
+    <row r="181" spans="1:13" hidden="1">
       <c r="A181" s="10">
         <v>179</v>
       </c>
@@ -8948,7 +8949,7 @@
         <v>21414.65</v>
       </c>
     </row>
-    <row r="182" spans="1:13">
+    <row r="182" spans="1:13" hidden="1">
       <c r="A182" s="10">
         <v>180</v>
       </c>
@@ -8989,7 +8990,7 @@
         <v>24479.919999999998</v>
       </c>
     </row>
-    <row r="183" spans="1:13">
+    <row r="183" spans="1:13" hidden="1">
       <c r="A183" s="10">
         <v>181</v>
       </c>
@@ -9030,7 +9031,7 @@
         <v>19083.060000000001</v>
       </c>
     </row>
-    <row r="184" spans="1:13">
+    <row r="184" spans="1:13" hidden="1">
       <c r="A184" s="10">
         <v>182</v>
       </c>
@@ -9071,7 +9072,7 @@
         <v>21616.62</v>
       </c>
     </row>
-    <row r="185" spans="1:13">
+    <row r="185" spans="1:13" hidden="1">
       <c r="A185" s="10">
         <v>183</v>
       </c>
@@ -9112,7 +9113,7 @@
         <v>19450.060000000001</v>
       </c>
     </row>
-    <row r="186" spans="1:13">
+    <row r="186" spans="1:13" hidden="1">
       <c r="A186" s="10">
         <v>184</v>
       </c>
@@ -9153,7 +9154,7 @@
         <v>14504.09</v>
       </c>
     </row>
-    <row r="187" spans="1:13">
+    <row r="187" spans="1:13" hidden="1">
       <c r="A187" s="10">
         <v>185</v>
       </c>
@@ -9194,7 +9195,7 @@
         <v>20565.27</v>
       </c>
     </row>
-    <row r="188" spans="1:13">
+    <row r="188" spans="1:13" hidden="1">
       <c r="A188" s="10">
         <v>186</v>
       </c>
@@ -9235,7 +9236,7 @@
         <v>20178.349999999999</v>
       </c>
     </row>
-    <row r="189" spans="1:13">
+    <row r="189" spans="1:13" hidden="1">
       <c r="A189" s="10">
         <v>187</v>
       </c>
@@ -9276,7 +9277,7 @@
         <v>22337.07</v>
       </c>
     </row>
-    <row r="190" spans="1:13">
+    <row r="190" spans="1:13" hidden="1">
       <c r="A190" s="10">
         <v>188</v>
       </c>
@@ -9317,7 +9318,7 @@
         <v>20642.689999999999</v>
       </c>
     </row>
-    <row r="191" spans="1:13">
+    <row r="191" spans="1:13" hidden="1">
       <c r="A191" s="10">
         <v>189</v>
       </c>
@@ -9358,7 +9359,7 @@
         <v>15677.34</v>
       </c>
     </row>
-    <row r="192" spans="1:13">
+    <row r="192" spans="1:13" hidden="1">
       <c r="A192" s="10">
         <v>190</v>
       </c>
@@ -9399,7 +9400,7 @@
         <v>18921.32</v>
       </c>
     </row>
-    <row r="193" spans="1:13">
+    <row r="193" spans="1:13" hidden="1">
       <c r="A193" s="10">
         <v>191</v>
       </c>
@@ -9440,7 +9441,7 @@
         <v>22517.31</v>
       </c>
     </row>
-    <row r="194" spans="1:13">
+    <row r="194" spans="1:13" hidden="1">
       <c r="A194" s="10">
         <v>192</v>
       </c>
@@ -9481,7 +9482,7 @@
         <v>18499.060000000001</v>
       </c>
     </row>
-    <row r="195" spans="1:13">
+    <row r="195" spans="1:13" hidden="1">
       <c r="A195" s="10">
         <v>193</v>
       </c>
@@ -9522,7 +9523,7 @@
         <v>49306.96</v>
       </c>
     </row>
-    <row r="196" spans="1:13">
+    <row r="196" spans="1:13" hidden="1">
       <c r="A196" s="10">
         <v>194</v>
       </c>
@@ -9563,7 +9564,7 @@
         <v>50897.760000000002</v>
       </c>
     </row>
-    <row r="197" spans="1:13">
+    <row r="197" spans="1:13" hidden="1">
       <c r="A197" s="10">
         <v>195</v>
       </c>
@@ -9604,7 +9605,7 @@
         <v>50580.44</v>
       </c>
     </row>
-    <row r="198" spans="1:13">
+    <row r="198" spans="1:13" hidden="1">
       <c r="A198" s="10">
         <v>196</v>
       </c>
@@ -9645,7 +9646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:13">
+    <row r="199" spans="1:13" hidden="1">
       <c r="A199" s="10">
         <v>197</v>
       </c>
@@ -9809,7 +9810,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="203" spans="1:13">
+    <row r="203" spans="1:13" hidden="1">
       <c r="A203" s="10">
         <v>201</v>
       </c>
@@ -9850,7 +9851,7 @@
         <v>26066</v>
       </c>
     </row>
-    <row r="204" spans="1:13">
+    <row r="204" spans="1:13" hidden="1">
       <c r="A204" s="10">
         <v>202</v>
       </c>
@@ -9891,7 +9892,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="205" spans="1:13">
+    <row r="205" spans="1:13" hidden="1">
       <c r="A205" s="10">
         <v>203</v>
       </c>
@@ -9932,7 +9933,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="206" spans="1:13">
+    <row r="206" spans="1:13" hidden="1">
       <c r="A206" s="10">
         <v>204</v>
       </c>
@@ -9973,7 +9974,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="207" spans="1:13">
+    <row r="207" spans="1:13" hidden="1">
       <c r="A207" s="10">
         <v>205</v>
       </c>
@@ -10014,7 +10015,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="208" spans="1:13">
+    <row r="208" spans="1:13" hidden="1">
       <c r="A208" s="10">
         <v>206</v>
       </c>
@@ -10137,7 +10138,7 @@
         <v>1622.27</v>
       </c>
     </row>
-    <row r="211" spans="1:13">
+    <row r="211" spans="1:13" hidden="1">
       <c r="A211" s="10">
         <v>209</v>
       </c>
@@ -10178,7 +10179,7 @@
         <v>7573</v>
       </c>
     </row>
-    <row r="212" spans="1:13">
+    <row r="212" spans="1:13" hidden="1">
       <c r="A212" s="10">
         <v>210</v>
       </c>
@@ -10219,7 +10220,7 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="213" spans="1:13">
+    <row r="213" spans="1:13" hidden="1">
       <c r="A213" s="10">
         <v>211</v>
       </c>
@@ -10301,7 +10302,7 @@
         <v>3430</v>
       </c>
     </row>
-    <row r="215" spans="1:13">
+    <row r="215" spans="1:13" hidden="1">
       <c r="A215" s="10">
         <v>213</v>
       </c>
@@ -10342,7 +10343,7 @@
         <v>19530</v>
       </c>
     </row>
-    <row r="216" spans="1:13">
+    <row r="216" spans="1:13" hidden="1">
       <c r="A216" s="10">
         <v>214</v>
       </c>
@@ -10383,7 +10384,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="217" spans="1:13">
+    <row r="217" spans="1:13" hidden="1">
       <c r="A217" s="10">
         <v>215</v>
       </c>
@@ -10465,7 +10466,7 @@
         <v>5457</v>
       </c>
     </row>
-    <row r="219" spans="1:13">
+    <row r="219" spans="1:13" hidden="1">
       <c r="A219" s="10">
         <v>217</v>
       </c>
@@ -10670,7 +10671,7 @@
         <v>4775</v>
       </c>
     </row>
-    <row r="224" spans="1:13">
+    <row r="224" spans="1:13" hidden="1">
       <c r="A224" s="10">
         <v>222</v>
       </c>
@@ -10711,7 +10712,7 @@
         <v>29805</v>
       </c>
     </row>
-    <row r="225" spans="1:13">
+    <row r="225" spans="1:13" hidden="1">
       <c r="A225" s="10">
         <v>223</v>
       </c>
@@ -10752,7 +10753,7 @@
         <v>22885</v>
       </c>
     </row>
-    <row r="226" spans="1:13">
+    <row r="226" spans="1:13" hidden="1">
       <c r="A226" s="10">
         <v>224</v>
       </c>
@@ -10793,7 +10794,7 @@
         <v>13890</v>
       </c>
     </row>
-    <row r="227" spans="1:13">
+    <row r="227" spans="1:13" hidden="1">
       <c r="A227" s="10">
         <v>225</v>
       </c>
@@ -10834,7 +10835,7 @@
         <v>11470</v>
       </c>
     </row>
-    <row r="228" spans="1:13">
+    <row r="228" spans="1:13" hidden="1">
       <c r="A228" s="10">
         <v>226</v>
       </c>
@@ -10916,7 +10917,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="230" spans="1:13">
+    <row r="230" spans="1:13" hidden="1">
       <c r="A230" s="10">
         <v>228</v>
       </c>
@@ -10998,7 +10999,7 @@
         <v>13265</v>
       </c>
     </row>
-    <row r="232" spans="1:13">
+    <row r="232" spans="1:13" hidden="1">
       <c r="A232" s="10">
         <v>230</v>
       </c>
@@ -11203,7 +11204,7 @@
         <v>1114.81</v>
       </c>
     </row>
-    <row r="237" spans="1:13">
+    <row r="237" spans="1:13" hidden="1">
       <c r="A237" s="10">
         <v>235</v>
       </c>
@@ -11244,7 +11245,7 @@
         <v>36469</v>
       </c>
     </row>
-    <row r="238" spans="1:13">
+    <row r="238" spans="1:13" hidden="1">
       <c r="A238" s="10">
         <v>236</v>
       </c>
@@ -11285,7 +11286,7 @@
         <v>29456</v>
       </c>
     </row>
-    <row r="239" spans="1:13">
+    <row r="239" spans="1:13" hidden="1">
       <c r="A239" s="10">
         <v>237</v>
       </c>
@@ -11326,7 +11327,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="240" spans="1:13">
+    <row r="240" spans="1:13" hidden="1">
       <c r="A240" s="10">
         <v>238</v>
       </c>
@@ -11367,7 +11368,7 @@
         <v>5392</v>
       </c>
     </row>
-    <row r="241" spans="1:13">
+    <row r="241" spans="1:13" hidden="1">
       <c r="A241" s="10">
         <v>239</v>
       </c>
@@ -11408,7 +11409,7 @@
         <v>4087</v>
       </c>
     </row>
-    <row r="242" spans="1:13">
+    <row r="242" spans="1:13" hidden="1">
       <c r="A242" s="10">
         <v>240</v>
       </c>
@@ -11449,7 +11450,7 @@
         <v>4793</v>
       </c>
     </row>
-    <row r="243" spans="1:13">
+    <row r="243" spans="1:13" hidden="1">
       <c r="A243" s="10">
         <v>241</v>
       </c>
@@ -11490,7 +11491,7 @@
         <v>4546</v>
       </c>
     </row>
-    <row r="244" spans="1:13">
+    <row r="244" spans="1:13" hidden="1">
       <c r="A244" s="10">
         <v>242</v>
       </c>
@@ -11572,7 +11573,7 @@
         <v>7161</v>
       </c>
     </row>
-    <row r="246" spans="1:13">
+    <row r="246" spans="1:13" hidden="1">
       <c r="A246" s="10">
         <v>244</v>
       </c>
@@ -11613,7 +11614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:13">
+    <row r="247" spans="1:13" hidden="1">
       <c r="A247" s="10">
         <v>245</v>
       </c>
@@ -11654,7 +11655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:13">
+    <row r="248" spans="1:13" hidden="1">
       <c r="A248" s="10">
         <v>246</v>
       </c>
@@ -11695,7 +11696,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="249" spans="1:13">
+    <row r="249" spans="1:13" hidden="1">
       <c r="A249" s="10">
         <v>247</v>
       </c>
@@ -11738,6 +11739,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:M249" xr:uid="{5915B8A4-606E-4D98-A929-6F2AE5EE112A}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="FORKLIFT"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:M249">
       <sortCondition ref="A2:A249"/>
     </sortState>

--- a/cost & bbm 2022 sd 2025.xlsx
+++ b/cost & bbm 2022 sd 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Downloads\SPIL\bbm\Analisa BBM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343AA3BC-120B-497E-82DC-3C03E521B46E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929B22F7-5396-4B0C-848A-99961AD25968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{F88CA839-DB7F-4E60-9CFF-046C703DC5B0}"/>
   </bookViews>
@@ -1523,11 +1523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5915B8A4-606E-4D98-A929-6F2AE5EE112A}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:M249"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="F162" sqref="F162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1692,7 +1691,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="5" spans="1:13" hidden="1">
+    <row r="5" spans="1:13">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -1733,7 +1732,7 @@
         <v>8206</v>
       </c>
     </row>
-    <row r="6" spans="1:13" hidden="1">
+    <row r="6" spans="1:13">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -1815,7 +1814,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="8" spans="1:13" hidden="1">
+    <row r="8" spans="1:13">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -1856,7 +1855,7 @@
         <v>33100</v>
       </c>
     </row>
-    <row r="9" spans="1:13" hidden="1">
+    <row r="9" spans="1:13">
       <c r="A9" s="10">
         <v>7</v>
       </c>
@@ -1897,7 +1896,7 @@
         <v>13400</v>
       </c>
     </row>
-    <row r="10" spans="1:13" hidden="1">
+    <row r="10" spans="1:13">
       <c r="A10" s="10">
         <v>8</v>
       </c>
@@ -1938,7 +1937,7 @@
         <v>7300</v>
       </c>
     </row>
-    <row r="11" spans="1:13" hidden="1">
+    <row r="11" spans="1:13">
       <c r="A11" s="10">
         <v>9</v>
       </c>
@@ -1979,7 +1978,7 @@
         <v>8350</v>
       </c>
     </row>
-    <row r="12" spans="1:13" hidden="1">
+    <row r="12" spans="1:13">
       <c r="A12" s="10">
         <v>10</v>
       </c>
@@ -2061,7 +2060,7 @@
         <v>2578</v>
       </c>
     </row>
-    <row r="14" spans="1:13" hidden="1">
+    <row r="14" spans="1:13">
       <c r="A14" s="10">
         <v>12</v>
       </c>
@@ -2102,7 +2101,7 @@
         <v>41237</v>
       </c>
     </row>
-    <row r="15" spans="1:13" hidden="1">
+    <row r="15" spans="1:13">
       <c r="A15" s="10">
         <v>13</v>
       </c>
@@ -2143,7 +2142,7 @@
         <v>16106</v>
       </c>
     </row>
-    <row r="16" spans="1:13" hidden="1">
+    <row r="16" spans="1:13">
       <c r="A16" s="10">
         <v>14</v>
       </c>
@@ -2184,7 +2183,7 @@
         <v>4915</v>
       </c>
     </row>
-    <row r="17" spans="1:13" hidden="1">
+    <row r="17" spans="1:13">
       <c r="A17" s="10">
         <v>15</v>
       </c>
@@ -2225,7 +2224,7 @@
         <v>3803</v>
       </c>
     </row>
-    <row r="18" spans="1:13" hidden="1">
+    <row r="18" spans="1:13">
       <c r="A18" s="10">
         <v>16</v>
       </c>
@@ -2266,7 +2265,7 @@
         <v>8623</v>
       </c>
     </row>
-    <row r="19" spans="1:13" hidden="1">
+    <row r="19" spans="1:13">
       <c r="A19" s="10">
         <v>17</v>
       </c>
@@ -2307,7 +2306,7 @@
         <v>65268</v>
       </c>
     </row>
-    <row r="20" spans="1:13" hidden="1">
+    <row r="20" spans="1:13">
       <c r="A20" s="10">
         <v>18</v>
       </c>
@@ -2348,7 +2347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" hidden="1">
+    <row r="21" spans="1:13">
       <c r="A21" s="10">
         <v>19</v>
       </c>
@@ -2717,7 +2716,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="30" spans="1:13" hidden="1">
+    <row r="30" spans="1:13">
       <c r="A30" s="10">
         <v>28</v>
       </c>
@@ -2758,7 +2757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" hidden="1">
+    <row r="31" spans="1:13">
       <c r="A31" s="10">
         <v>29</v>
       </c>
@@ -2799,7 +2798,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:13" hidden="1">
+    <row r="32" spans="1:13">
       <c r="A32" s="10">
         <v>30</v>
       </c>
@@ -2922,7 +2921,7 @@
         <v>14360</v>
       </c>
     </row>
-    <row r="35" spans="1:13" hidden="1">
+    <row r="35" spans="1:13">
       <c r="A35" s="10">
         <v>33</v>
       </c>
@@ -3209,7 +3208,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="42" spans="1:13" hidden="1">
+    <row r="42" spans="1:13">
       <c r="A42" s="10">
         <v>40</v>
       </c>
@@ -3250,7 +3249,7 @@
         <v>53056.23</v>
       </c>
     </row>
-    <row r="43" spans="1:13" hidden="1">
+    <row r="43" spans="1:13">
       <c r="A43" s="10">
         <v>41</v>
       </c>
@@ -3578,7 +3577,7 @@
         <v>4598.4799999999996</v>
       </c>
     </row>
-    <row r="51" spans="1:13" hidden="1">
+    <row r="51" spans="1:13">
       <c r="A51" s="10">
         <v>49</v>
       </c>
@@ -3619,7 +3618,7 @@
         <v>71353.86</v>
       </c>
     </row>
-    <row r="52" spans="1:13" hidden="1">
+    <row r="52" spans="1:13">
       <c r="A52" s="10">
         <v>50</v>
       </c>
@@ -3660,7 +3659,7 @@
         <v>75409.09</v>
       </c>
     </row>
-    <row r="53" spans="1:13" hidden="1">
+    <row r="53" spans="1:13">
       <c r="A53" s="10">
         <v>51</v>
       </c>
@@ -3701,7 +3700,7 @@
         <v>28014</v>
       </c>
     </row>
-    <row r="54" spans="1:13" hidden="1">
+    <row r="54" spans="1:13">
       <c r="A54" s="10">
         <v>52</v>
       </c>
@@ -3742,7 +3741,7 @@
         <v>65248.31</v>
       </c>
     </row>
-    <row r="55" spans="1:13" hidden="1">
+    <row r="55" spans="1:13">
       <c r="A55" s="10">
         <v>53</v>
       </c>
@@ -3783,7 +3782,7 @@
         <v>21269.75</v>
       </c>
     </row>
-    <row r="56" spans="1:13" hidden="1">
+    <row r="56" spans="1:13">
       <c r="A56" s="10">
         <v>54</v>
       </c>
@@ -3865,7 +3864,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="58" spans="1:13" hidden="1">
+    <row r="58" spans="1:13">
       <c r="A58" s="10">
         <v>56</v>
       </c>
@@ -4070,7 +4069,7 @@
         <v>2000.25</v>
       </c>
     </row>
-    <row r="63" spans="1:13" hidden="1">
+    <row r="63" spans="1:13">
       <c r="A63" s="10">
         <v>61</v>
       </c>
@@ -4111,7 +4110,7 @@
         <v>48748.24</v>
       </c>
     </row>
-    <row r="64" spans="1:13" hidden="1">
+    <row r="64" spans="1:13">
       <c r="A64" s="10">
         <v>62</v>
       </c>
@@ -4152,7 +4151,7 @@
         <v>42290.71</v>
       </c>
     </row>
-    <row r="65" spans="1:13" hidden="1">
+    <row r="65" spans="1:13">
       <c r="A65" s="10">
         <v>63</v>
       </c>
@@ -4193,7 +4192,7 @@
         <v>9229.76</v>
       </c>
     </row>
-    <row r="66" spans="1:13" hidden="1">
+    <row r="66" spans="1:13">
       <c r="A66" s="10">
         <v>64</v>
       </c>
@@ -4234,7 +4233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13" hidden="1">
+    <row r="67" spans="1:13">
       <c r="A67" s="10">
         <v>65</v>
       </c>
@@ -4275,7 +4274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:13" hidden="1">
+    <row r="68" spans="1:13">
       <c r="A68" s="10">
         <v>66</v>
       </c>
@@ -4316,7 +4315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:13" hidden="1">
+    <row r="69" spans="1:13">
       <c r="A69" s="10">
         <v>67</v>
       </c>
@@ -4357,7 +4356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:13" hidden="1">
+    <row r="70" spans="1:13">
       <c r="A70" s="10">
         <v>68</v>
       </c>
@@ -4398,7 +4397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:13" hidden="1">
+    <row r="71" spans="1:13">
       <c r="A71" s="10">
         <v>69</v>
       </c>
@@ -4439,7 +4438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:13" hidden="1">
+    <row r="72" spans="1:13">
       <c r="A72" s="10">
         <v>70</v>
       </c>
@@ -4480,7 +4479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:13" hidden="1">
+    <row r="73" spans="1:13">
       <c r="A73" s="10">
         <v>71</v>
       </c>
@@ -4521,7 +4520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:13" hidden="1">
+    <row r="74" spans="1:13">
       <c r="A74" s="10">
         <v>72</v>
       </c>
@@ -4562,7 +4561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:13" hidden="1">
+    <row r="75" spans="1:13">
       <c r="A75" s="10">
         <v>73</v>
       </c>
@@ -4603,7 +4602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:13" hidden="1">
+    <row r="76" spans="1:13">
       <c r="A76" s="10">
         <v>74</v>
       </c>
@@ -4644,7 +4643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:13" hidden="1">
+    <row r="77" spans="1:13">
       <c r="A77" s="10">
         <v>75</v>
       </c>
@@ -4685,7 +4684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:13" hidden="1">
+    <row r="78" spans="1:13">
       <c r="A78" s="10">
         <v>76</v>
       </c>
@@ -4726,7 +4725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:13" hidden="1">
+    <row r="79" spans="1:13">
       <c r="A79" s="10">
         <v>77</v>
       </c>
@@ -4767,7 +4766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:13" hidden="1">
+    <row r="80" spans="1:13">
       <c r="A80" s="10">
         <v>78</v>
       </c>
@@ -4808,7 +4807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:13" hidden="1">
+    <row r="81" spans="1:13">
       <c r="A81" s="10">
         <v>79</v>
       </c>
@@ -4849,7 +4848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:13" hidden="1">
+    <row r="82" spans="1:13">
       <c r="A82" s="10">
         <v>80</v>
       </c>
@@ -4890,7 +4889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:13" hidden="1">
+    <row r="83" spans="1:13">
       <c r="A83" s="10">
         <v>81</v>
       </c>
@@ -4931,7 +4930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:13" hidden="1">
+    <row r="84" spans="1:13">
       <c r="A84" s="10">
         <v>82</v>
       </c>
@@ -4972,7 +4971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:13" hidden="1">
+    <row r="85" spans="1:13">
       <c r="A85" s="10">
         <v>83</v>
       </c>
@@ -5013,7 +5012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:13" hidden="1">
+    <row r="86" spans="1:13">
       <c r="A86" s="10">
         <v>84</v>
       </c>
@@ -5054,7 +5053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:13" hidden="1">
+    <row r="87" spans="1:13">
       <c r="A87" s="10">
         <v>85</v>
       </c>
@@ -5095,7 +5094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13" hidden="1">
+    <row r="88" spans="1:13">
       <c r="A88" s="10">
         <v>86</v>
       </c>
@@ -5136,7 +5135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:13" hidden="1">
+    <row r="89" spans="1:13">
       <c r="A89" s="10">
         <v>87</v>
       </c>
@@ -5177,7 +5176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:13" hidden="1">
+    <row r="90" spans="1:13">
       <c r="A90" s="10">
         <v>88</v>
       </c>
@@ -5218,7 +5217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:13" hidden="1">
+    <row r="91" spans="1:13">
       <c r="A91" s="10">
         <v>89</v>
       </c>
@@ -5259,7 +5258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:13" hidden="1">
+    <row r="92" spans="1:13">
       <c r="A92" s="10">
         <v>90</v>
       </c>
@@ -5300,7 +5299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:13" hidden="1">
+    <row r="93" spans="1:13">
       <c r="A93" s="10">
         <v>91</v>
       </c>
@@ -5341,7 +5340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:13" hidden="1">
+    <row r="94" spans="1:13">
       <c r="A94" s="10">
         <v>92</v>
       </c>
@@ -5382,7 +5381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:13" hidden="1">
+    <row r="95" spans="1:13">
       <c r="A95" s="10">
         <v>93</v>
       </c>
@@ -5423,7 +5422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:13" hidden="1">
+    <row r="96" spans="1:13">
       <c r="A96" s="10">
         <v>94</v>
       </c>
@@ -5464,7 +5463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:13" hidden="1">
+    <row r="97" spans="1:13">
       <c r="A97" s="10">
         <v>95</v>
       </c>
@@ -5505,7 +5504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:13" hidden="1">
+    <row r="98" spans="1:13">
       <c r="A98" s="10">
         <v>96</v>
       </c>
@@ -5546,7 +5545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:13" hidden="1">
+    <row r="99" spans="1:13">
       <c r="A99" s="10">
         <v>97</v>
       </c>
@@ -5587,7 +5586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:13" hidden="1">
+    <row r="100" spans="1:13">
       <c r="A100" s="10">
         <v>98</v>
       </c>
@@ -5628,7 +5627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:13" hidden="1">
+    <row r="101" spans="1:13">
       <c r="A101" s="10">
         <v>99</v>
       </c>
@@ -5669,7 +5668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:13" hidden="1">
+    <row r="102" spans="1:13">
       <c r="A102" s="10">
         <v>100</v>
       </c>
@@ -5710,7 +5709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:13" hidden="1">
+    <row r="103" spans="1:13">
       <c r="A103" s="10">
         <v>101</v>
       </c>
@@ -5751,7 +5750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:13" hidden="1">
+    <row r="104" spans="1:13">
       <c r="A104" s="10">
         <v>102</v>
       </c>
@@ -5792,7 +5791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:13" hidden="1">
+    <row r="105" spans="1:13">
       <c r="A105" s="10">
         <v>103</v>
       </c>
@@ -5874,7 +5873,7 @@
         <v>7800</v>
       </c>
     </row>
-    <row r="107" spans="1:13" hidden="1">
+    <row r="107" spans="1:13">
       <c r="A107" s="10">
         <v>105</v>
       </c>
@@ -6038,7 +6037,7 @@
         <v>1716.26</v>
       </c>
     </row>
-    <row r="111" spans="1:13" hidden="1">
+    <row r="111" spans="1:13">
       <c r="A111" s="10">
         <v>109</v>
       </c>
@@ -6284,7 +6283,7 @@
         <v>5983.96</v>
       </c>
     </row>
-    <row r="117" spans="1:13" hidden="1">
+    <row r="117" spans="1:13">
       <c r="A117" s="10">
         <v>115</v>
       </c>
@@ -6325,7 +6324,7 @@
         <v>53799.77</v>
       </c>
     </row>
-    <row r="118" spans="1:13" hidden="1">
+    <row r="118" spans="1:13">
       <c r="A118" s="10">
         <v>116</v>
       </c>
@@ -6366,7 +6365,7 @@
         <v>56153.5</v>
       </c>
     </row>
-    <row r="119" spans="1:13" hidden="1">
+    <row r="119" spans="1:13">
       <c r="A119" s="10">
         <v>117</v>
       </c>
@@ -6407,7 +6406,7 @@
         <v>40767.56</v>
       </c>
     </row>
-    <row r="120" spans="1:13" hidden="1">
+    <row r="120" spans="1:13">
       <c r="A120" s="10">
         <v>118</v>
       </c>
@@ -6858,7 +6857,7 @@
         <v>732.43</v>
       </c>
     </row>
-    <row r="131" spans="1:13" hidden="1">
+    <row r="131" spans="1:13">
       <c r="A131" s="10">
         <v>129</v>
       </c>
@@ -6899,7 +6898,7 @@
         <v>30968.76</v>
       </c>
     </row>
-    <row r="132" spans="1:13" hidden="1">
+    <row r="132" spans="1:13">
       <c r="A132" s="10">
         <v>130</v>
       </c>
@@ -6940,7 +6939,7 @@
         <v>55283.76</v>
       </c>
     </row>
-    <row r="133" spans="1:13" hidden="1">
+    <row r="133" spans="1:13">
       <c r="A133" s="10">
         <v>131</v>
       </c>
@@ -6981,7 +6980,7 @@
         <v>67487.13</v>
       </c>
     </row>
-    <row r="134" spans="1:13" hidden="1">
+    <row r="134" spans="1:13">
       <c r="A134" s="10">
         <v>132</v>
       </c>
@@ -7022,7 +7021,7 @@
         <v>22380.07</v>
       </c>
     </row>
-    <row r="135" spans="1:13" hidden="1">
+    <row r="135" spans="1:13">
       <c r="A135" s="10">
         <v>133</v>
       </c>
@@ -7063,7 +7062,7 @@
         <v>28029.360000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:13" hidden="1">
+    <row r="136" spans="1:13">
       <c r="A136" s="10">
         <v>134</v>
       </c>
@@ -7104,7 +7103,7 @@
         <v>21698.07</v>
       </c>
     </row>
-    <row r="137" spans="1:13" hidden="1">
+    <row r="137" spans="1:13">
       <c r="A137" s="10">
         <v>135</v>
       </c>
@@ -7145,7 +7144,7 @@
         <v>29460.33</v>
       </c>
     </row>
-    <row r="138" spans="1:13" hidden="1">
+    <row r="138" spans="1:13">
       <c r="A138" s="10">
         <v>136</v>
       </c>
@@ -7186,7 +7185,7 @@
         <v>21116.29</v>
       </c>
     </row>
-    <row r="139" spans="1:13" hidden="1">
+    <row r="139" spans="1:13">
       <c r="A139" s="10">
         <v>137</v>
       </c>
@@ -7227,7 +7226,7 @@
         <v>23254.18</v>
       </c>
     </row>
-    <row r="140" spans="1:13" hidden="1">
+    <row r="140" spans="1:13">
       <c r="A140" s="10">
         <v>138</v>
       </c>
@@ -7268,7 +7267,7 @@
         <v>25220.51</v>
       </c>
     </row>
-    <row r="141" spans="1:13" hidden="1">
+    <row r="141" spans="1:13">
       <c r="A141" s="10">
         <v>139</v>
       </c>
@@ -7309,7 +7308,7 @@
         <v>24269.01</v>
       </c>
     </row>
-    <row r="142" spans="1:13" hidden="1">
+    <row r="142" spans="1:13">
       <c r="A142" s="10">
         <v>140</v>
       </c>
@@ -7350,7 +7349,7 @@
         <v>22840.07</v>
       </c>
     </row>
-    <row r="143" spans="1:13" hidden="1">
+    <row r="143" spans="1:13">
       <c r="A143" s="10">
         <v>141</v>
       </c>
@@ -7391,7 +7390,7 @@
         <v>27354.86</v>
       </c>
     </row>
-    <row r="144" spans="1:13" hidden="1">
+    <row r="144" spans="1:13">
       <c r="A144" s="10">
         <v>142</v>
       </c>
@@ -7432,7 +7431,7 @@
         <v>24348.5</v>
       </c>
     </row>
-    <row r="145" spans="1:13" hidden="1">
+    <row r="145" spans="1:13">
       <c r="A145" s="10">
         <v>143</v>
       </c>
@@ -7473,7 +7472,7 @@
         <v>21559.5</v>
       </c>
     </row>
-    <row r="146" spans="1:13" hidden="1">
+    <row r="146" spans="1:13">
       <c r="A146" s="10">
         <v>144</v>
       </c>
@@ -7514,7 +7513,7 @@
         <v>24883.66</v>
       </c>
     </row>
-    <row r="147" spans="1:13" hidden="1">
+    <row r="147" spans="1:13">
       <c r="A147" s="10">
         <v>145</v>
       </c>
@@ -7555,7 +7554,7 @@
         <v>23457.69</v>
       </c>
     </row>
-    <row r="148" spans="1:13" hidden="1">
+    <row r="148" spans="1:13">
       <c r="A148" s="10">
         <v>146</v>
       </c>
@@ -7596,7 +7595,7 @@
         <v>8679.1200000000008</v>
       </c>
     </row>
-    <row r="149" spans="1:13" hidden="1">
+    <row r="149" spans="1:13">
       <c r="A149" s="10">
         <v>147</v>
       </c>
@@ -7637,7 +7636,7 @@
         <v>26275.919999999998</v>
       </c>
     </row>
-    <row r="150" spans="1:13" hidden="1">
+    <row r="150" spans="1:13">
       <c r="A150" s="10">
         <v>148</v>
       </c>
@@ -7678,7 +7677,7 @@
         <v>19255.36</v>
       </c>
     </row>
-    <row r="151" spans="1:13" hidden="1">
+    <row r="151" spans="1:13">
       <c r="A151" s="10">
         <v>149</v>
       </c>
@@ -7719,7 +7718,7 @@
         <v>22348.15</v>
       </c>
     </row>
-    <row r="152" spans="1:13" hidden="1">
+    <row r="152" spans="1:13">
       <c r="A152" s="10">
         <v>150</v>
       </c>
@@ -7760,7 +7759,7 @@
         <v>15899.56</v>
       </c>
     </row>
-    <row r="153" spans="1:13" hidden="1">
+    <row r="153" spans="1:13">
       <c r="A153" s="10">
         <v>151</v>
       </c>
@@ -7883,7 +7882,7 @@
         <v>3460.54</v>
       </c>
     </row>
-    <row r="156" spans="1:13" hidden="1">
+    <row r="156" spans="1:13">
       <c r="A156" s="10">
         <v>154</v>
       </c>
@@ -7924,7 +7923,7 @@
         <v>35674.910000000003</v>
       </c>
     </row>
-    <row r="157" spans="1:13" hidden="1">
+    <row r="157" spans="1:13">
       <c r="A157" s="10">
         <v>155</v>
       </c>
@@ -7965,7 +7964,7 @@
         <v>62980.17</v>
       </c>
     </row>
-    <row r="158" spans="1:13" hidden="1">
+    <row r="158" spans="1:13">
       <c r="A158" s="10">
         <v>156</v>
       </c>
@@ -8006,7 +8005,7 @@
         <v>44232.32</v>
       </c>
     </row>
-    <row r="159" spans="1:13" hidden="1">
+    <row r="159" spans="1:13">
       <c r="A159" s="10">
         <v>157</v>
       </c>
@@ -8047,7 +8046,7 @@
         <v>17592.93</v>
       </c>
     </row>
-    <row r="160" spans="1:13" hidden="1">
+    <row r="160" spans="1:13">
       <c r="A160" s="10">
         <v>158</v>
       </c>
@@ -8088,7 +8087,7 @@
         <v>10413.35</v>
       </c>
     </row>
-    <row r="161" spans="1:13" hidden="1">
+    <row r="161" spans="1:13">
       <c r="A161" s="10">
         <v>159</v>
       </c>
@@ -8129,7 +8128,7 @@
         <v>15105.21</v>
       </c>
     </row>
-    <row r="162" spans="1:13" hidden="1">
+    <row r="162" spans="1:13">
       <c r="A162" s="10">
         <v>160</v>
       </c>
@@ -8170,7 +8169,7 @@
         <v>7373.44</v>
       </c>
     </row>
-    <row r="163" spans="1:13" hidden="1">
+    <row r="163" spans="1:13">
       <c r="A163" s="10">
         <v>161</v>
       </c>
@@ -8211,7 +8210,7 @@
         <v>13102.17</v>
       </c>
     </row>
-    <row r="164" spans="1:13" hidden="1">
+    <row r="164" spans="1:13">
       <c r="A164" s="10">
         <v>162</v>
       </c>
@@ -8252,7 +8251,7 @@
         <v>17867.61</v>
       </c>
     </row>
-    <row r="165" spans="1:13" hidden="1">
+    <row r="165" spans="1:13">
       <c r="A165" s="10">
         <v>163</v>
       </c>
@@ -8293,7 +8292,7 @@
         <v>20354.419999999998</v>
       </c>
     </row>
-    <row r="166" spans="1:13" hidden="1">
+    <row r="166" spans="1:13">
       <c r="A166" s="10">
         <v>164</v>
       </c>
@@ -8334,7 +8333,7 @@
         <v>21161.81</v>
       </c>
     </row>
-    <row r="167" spans="1:13" hidden="1">
+    <row r="167" spans="1:13">
       <c r="A167" s="10">
         <v>165</v>
       </c>
@@ -8375,7 +8374,7 @@
         <v>18764.73</v>
       </c>
     </row>
-    <row r="168" spans="1:13" hidden="1">
+    <row r="168" spans="1:13">
       <c r="A168" s="10">
         <v>166</v>
       </c>
@@ -8416,7 +8415,7 @@
         <v>21113.72</v>
       </c>
     </row>
-    <row r="169" spans="1:13" hidden="1">
+    <row r="169" spans="1:13">
       <c r="A169" s="10">
         <v>167</v>
       </c>
@@ -8457,7 +8456,7 @@
         <v>19394.189999999999</v>
       </c>
     </row>
-    <row r="170" spans="1:13" hidden="1">
+    <row r="170" spans="1:13">
       <c r="A170" s="10">
         <v>168</v>
       </c>
@@ -8498,7 +8497,7 @@
         <v>18676.830000000002</v>
       </c>
     </row>
-    <row r="171" spans="1:13" hidden="1">
+    <row r="171" spans="1:13">
       <c r="A171" s="10">
         <v>169</v>
       </c>
@@ -8539,7 +8538,7 @@
         <v>19190.900000000001</v>
       </c>
     </row>
-    <row r="172" spans="1:13" hidden="1">
+    <row r="172" spans="1:13">
       <c r="A172" s="10">
         <v>170</v>
       </c>
@@ -8580,7 +8579,7 @@
         <v>15926.21</v>
       </c>
     </row>
-    <row r="173" spans="1:13" hidden="1">
+    <row r="173" spans="1:13">
       <c r="A173" s="10">
         <v>171</v>
       </c>
@@ -8621,7 +8620,7 @@
         <v>18678.04</v>
       </c>
     </row>
-    <row r="174" spans="1:13" hidden="1">
+    <row r="174" spans="1:13">
       <c r="A174" s="10">
         <v>172</v>
       </c>
@@ -8662,7 +8661,7 @@
         <v>17269.560000000001</v>
       </c>
     </row>
-    <row r="175" spans="1:13" hidden="1">
+    <row r="175" spans="1:13">
       <c r="A175" s="10">
         <v>173</v>
       </c>
@@ -8703,7 +8702,7 @@
         <v>17762.47</v>
       </c>
     </row>
-    <row r="176" spans="1:13" hidden="1">
+    <row r="176" spans="1:13">
       <c r="A176" s="10">
         <v>174</v>
       </c>
@@ -8744,7 +8743,7 @@
         <v>18121.54</v>
       </c>
     </row>
-    <row r="177" spans="1:13" hidden="1">
+    <row r="177" spans="1:13">
       <c r="A177" s="10">
         <v>175</v>
       </c>
@@ -8785,7 +8784,7 @@
         <v>16727.669999999998</v>
       </c>
     </row>
-    <row r="178" spans="1:13" hidden="1">
+    <row r="178" spans="1:13">
       <c r="A178" s="10">
         <v>176</v>
       </c>
@@ -8826,7 +8825,7 @@
         <v>18228.23</v>
       </c>
     </row>
-    <row r="179" spans="1:13" hidden="1">
+    <row r="179" spans="1:13">
       <c r="A179" s="10">
         <v>177</v>
       </c>
@@ -8867,7 +8866,7 @@
         <v>20024.95</v>
       </c>
     </row>
-    <row r="180" spans="1:13" hidden="1">
+    <row r="180" spans="1:13">
       <c r="A180" s="10">
         <v>178</v>
       </c>
@@ -8908,7 +8907,7 @@
         <v>18821.18</v>
       </c>
     </row>
-    <row r="181" spans="1:13" hidden="1">
+    <row r="181" spans="1:13">
       <c r="A181" s="10">
         <v>179</v>
       </c>
@@ -8949,7 +8948,7 @@
         <v>21414.65</v>
       </c>
     </row>
-    <row r="182" spans="1:13" hidden="1">
+    <row r="182" spans="1:13">
       <c r="A182" s="10">
         <v>180</v>
       </c>
@@ -8990,7 +8989,7 @@
         <v>24479.919999999998</v>
       </c>
     </row>
-    <row r="183" spans="1:13" hidden="1">
+    <row r="183" spans="1:13">
       <c r="A183" s="10">
         <v>181</v>
       </c>
@@ -9031,7 +9030,7 @@
         <v>19083.060000000001</v>
       </c>
     </row>
-    <row r="184" spans="1:13" hidden="1">
+    <row r="184" spans="1:13">
       <c r="A184" s="10">
         <v>182</v>
       </c>
@@ -9072,7 +9071,7 @@
         <v>21616.62</v>
       </c>
     </row>
-    <row r="185" spans="1:13" hidden="1">
+    <row r="185" spans="1:13">
       <c r="A185" s="10">
         <v>183</v>
       </c>
@@ -9113,7 +9112,7 @@
         <v>19450.060000000001</v>
       </c>
     </row>
-    <row r="186" spans="1:13" hidden="1">
+    <row r="186" spans="1:13">
       <c r="A186" s="10">
         <v>184</v>
       </c>
@@ -9154,7 +9153,7 @@
         <v>14504.09</v>
       </c>
     </row>
-    <row r="187" spans="1:13" hidden="1">
+    <row r="187" spans="1:13">
       <c r="A187" s="10">
         <v>185</v>
       </c>
@@ -9195,7 +9194,7 @@
         <v>20565.27</v>
       </c>
     </row>
-    <row r="188" spans="1:13" hidden="1">
+    <row r="188" spans="1:13">
       <c r="A188" s="10">
         <v>186</v>
       </c>
@@ -9236,7 +9235,7 @@
         <v>20178.349999999999</v>
       </c>
     </row>
-    <row r="189" spans="1:13" hidden="1">
+    <row r="189" spans="1:13">
       <c r="A189" s="10">
         <v>187</v>
       </c>
@@ -9277,7 +9276,7 @@
         <v>22337.07</v>
       </c>
     </row>
-    <row r="190" spans="1:13" hidden="1">
+    <row r="190" spans="1:13">
       <c r="A190" s="10">
         <v>188</v>
       </c>
@@ -9318,7 +9317,7 @@
         <v>20642.689999999999</v>
       </c>
     </row>
-    <row r="191" spans="1:13" hidden="1">
+    <row r="191" spans="1:13">
       <c r="A191" s="10">
         <v>189</v>
       </c>
@@ -9359,7 +9358,7 @@
         <v>15677.34</v>
       </c>
     </row>
-    <row r="192" spans="1:13" hidden="1">
+    <row r="192" spans="1:13">
       <c r="A192" s="10">
         <v>190</v>
       </c>
@@ -9400,7 +9399,7 @@
         <v>18921.32</v>
       </c>
     </row>
-    <row r="193" spans="1:13" hidden="1">
+    <row r="193" spans="1:13">
       <c r="A193" s="10">
         <v>191</v>
       </c>
@@ -9441,7 +9440,7 @@
         <v>22517.31</v>
       </c>
     </row>
-    <row r="194" spans="1:13" hidden="1">
+    <row r="194" spans="1:13">
       <c r="A194" s="10">
         <v>192</v>
       </c>
@@ -9482,7 +9481,7 @@
         <v>18499.060000000001</v>
       </c>
     </row>
-    <row r="195" spans="1:13" hidden="1">
+    <row r="195" spans="1:13">
       <c r="A195" s="10">
         <v>193</v>
       </c>
@@ -9523,7 +9522,7 @@
         <v>49306.96</v>
       </c>
     </row>
-    <row r="196" spans="1:13" hidden="1">
+    <row r="196" spans="1:13">
       <c r="A196" s="10">
         <v>194</v>
       </c>
@@ -9564,7 +9563,7 @@
         <v>50897.760000000002</v>
       </c>
     </row>
-    <row r="197" spans="1:13" hidden="1">
+    <row r="197" spans="1:13">
       <c r="A197" s="10">
         <v>195</v>
       </c>
@@ -9605,7 +9604,7 @@
         <v>50580.44</v>
       </c>
     </row>
-    <row r="198" spans="1:13" hidden="1">
+    <row r="198" spans="1:13">
       <c r="A198" s="10">
         <v>196</v>
       </c>
@@ -9646,7 +9645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:13" hidden="1">
+    <row r="199" spans="1:13">
       <c r="A199" s="10">
         <v>197</v>
       </c>
@@ -9810,7 +9809,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="203" spans="1:13" hidden="1">
+    <row r="203" spans="1:13">
       <c r="A203" s="10">
         <v>201</v>
       </c>
@@ -9851,7 +9850,7 @@
         <v>26066</v>
       </c>
     </row>
-    <row r="204" spans="1:13" hidden="1">
+    <row r="204" spans="1:13">
       <c r="A204" s="10">
         <v>202</v>
       </c>
@@ -9892,7 +9891,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="205" spans="1:13" hidden="1">
+    <row r="205" spans="1:13">
       <c r="A205" s="10">
         <v>203</v>
       </c>
@@ -9933,7 +9932,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="206" spans="1:13" hidden="1">
+    <row r="206" spans="1:13">
       <c r="A206" s="10">
         <v>204</v>
       </c>
@@ -9974,7 +9973,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="207" spans="1:13" hidden="1">
+    <row r="207" spans="1:13">
       <c r="A207" s="10">
         <v>205</v>
       </c>
@@ -10015,7 +10014,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="208" spans="1:13" hidden="1">
+    <row r="208" spans="1:13">
       <c r="A208" s="10">
         <v>206</v>
       </c>
@@ -10138,7 +10137,7 @@
         <v>1622.27</v>
       </c>
     </row>
-    <row r="211" spans="1:13" hidden="1">
+    <row r="211" spans="1:13">
       <c r="A211" s="10">
         <v>209</v>
       </c>
@@ -10179,7 +10178,7 @@
         <v>7573</v>
       </c>
     </row>
-    <row r="212" spans="1:13" hidden="1">
+    <row r="212" spans="1:13">
       <c r="A212" s="10">
         <v>210</v>
       </c>
@@ -10220,7 +10219,7 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="213" spans="1:13" hidden="1">
+    <row r="213" spans="1:13">
       <c r="A213" s="10">
         <v>211</v>
       </c>
@@ -10302,7 +10301,7 @@
         <v>3430</v>
       </c>
     </row>
-    <row r="215" spans="1:13" hidden="1">
+    <row r="215" spans="1:13">
       <c r="A215" s="10">
         <v>213</v>
       </c>
@@ -10343,7 +10342,7 @@
         <v>19530</v>
       </c>
     </row>
-    <row r="216" spans="1:13" hidden="1">
+    <row r="216" spans="1:13">
       <c r="A216" s="10">
         <v>214</v>
       </c>
@@ -10384,7 +10383,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="217" spans="1:13" hidden="1">
+    <row r="217" spans="1:13">
       <c r="A217" s="10">
         <v>215</v>
       </c>
@@ -10466,7 +10465,7 @@
         <v>5457</v>
       </c>
     </row>
-    <row r="219" spans="1:13" hidden="1">
+    <row r="219" spans="1:13">
       <c r="A219" s="10">
         <v>217</v>
       </c>
@@ -10671,7 +10670,7 @@
         <v>4775</v>
       </c>
     </row>
-    <row r="224" spans="1:13" hidden="1">
+    <row r="224" spans="1:13">
       <c r="A224" s="10">
         <v>222</v>
       </c>
@@ -10712,7 +10711,7 @@
         <v>29805</v>
       </c>
     </row>
-    <row r="225" spans="1:13" hidden="1">
+    <row r="225" spans="1:13">
       <c r="A225" s="10">
         <v>223</v>
       </c>
@@ -10753,7 +10752,7 @@
         <v>22885</v>
       </c>
     </row>
-    <row r="226" spans="1:13" hidden="1">
+    <row r="226" spans="1:13">
       <c r="A226" s="10">
         <v>224</v>
       </c>
@@ -10794,7 +10793,7 @@
         <v>13890</v>
       </c>
     </row>
-    <row r="227" spans="1:13" hidden="1">
+    <row r="227" spans="1:13">
       <c r="A227" s="10">
         <v>225</v>
       </c>
@@ -10835,7 +10834,7 @@
         <v>11470</v>
       </c>
     </row>
-    <row r="228" spans="1:13" hidden="1">
+    <row r="228" spans="1:13">
       <c r="A228" s="10">
         <v>226</v>
       </c>
@@ -10917,7 +10916,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="230" spans="1:13" hidden="1">
+    <row r="230" spans="1:13">
       <c r="A230" s="10">
         <v>228</v>
       </c>
@@ -10999,7 +10998,7 @@
         <v>13265</v>
       </c>
     </row>
-    <row r="232" spans="1:13" hidden="1">
+    <row r="232" spans="1:13">
       <c r="A232" s="10">
         <v>230</v>
       </c>
@@ -11204,7 +11203,7 @@
         <v>1114.81</v>
       </c>
     </row>
-    <row r="237" spans="1:13" hidden="1">
+    <row r="237" spans="1:13">
       <c r="A237" s="10">
         <v>235</v>
       </c>
@@ -11245,7 +11244,7 @@
         <v>36469</v>
       </c>
     </row>
-    <row r="238" spans="1:13" hidden="1">
+    <row r="238" spans="1:13">
       <c r="A238" s="10">
         <v>236</v>
       </c>
@@ -11286,7 +11285,7 @@
         <v>29456</v>
       </c>
     </row>
-    <row r="239" spans="1:13" hidden="1">
+    <row r="239" spans="1:13">
       <c r="A239" s="10">
         <v>237</v>
       </c>
@@ -11327,7 +11326,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="240" spans="1:13" hidden="1">
+    <row r="240" spans="1:13">
       <c r="A240" s="10">
         <v>238</v>
       </c>
@@ -11368,7 +11367,7 @@
         <v>5392</v>
       </c>
     </row>
-    <row r="241" spans="1:13" hidden="1">
+    <row r="241" spans="1:13">
       <c r="A241" s="10">
         <v>239</v>
       </c>
@@ -11409,7 +11408,7 @@
         <v>4087</v>
       </c>
     </row>
-    <row r="242" spans="1:13" hidden="1">
+    <row r="242" spans="1:13">
       <c r="A242" s="10">
         <v>240</v>
       </c>
@@ -11450,7 +11449,7 @@
         <v>4793</v>
       </c>
     </row>
-    <row r="243" spans="1:13" hidden="1">
+    <row r="243" spans="1:13">
       <c r="A243" s="10">
         <v>241</v>
       </c>
@@ -11491,7 +11490,7 @@
         <v>4546</v>
       </c>
     </row>
-    <row r="244" spans="1:13" hidden="1">
+    <row r="244" spans="1:13">
       <c r="A244" s="10">
         <v>242</v>
       </c>
@@ -11573,7 +11572,7 @@
         <v>7161</v>
       </c>
     </row>
-    <row r="246" spans="1:13" hidden="1">
+    <row r="246" spans="1:13">
       <c r="A246" s="10">
         <v>244</v>
       </c>
@@ -11614,7 +11613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:13" hidden="1">
+    <row r="247" spans="1:13">
       <c r="A247" s="10">
         <v>245</v>
       </c>
@@ -11655,7 +11654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:13" hidden="1">
+    <row r="248" spans="1:13">
       <c r="A248" s="10">
         <v>246</v>
       </c>
@@ -11696,7 +11695,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="249" spans="1:13" hidden="1">
+    <row r="249" spans="1:13">
       <c r="A249" s="10">
         <v>247</v>
       </c>
@@ -11739,11 +11738,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:M249" xr:uid="{5915B8A4-606E-4D98-A929-6F2AE5EE112A}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="FORKLIFT"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:M249">
       <sortCondition ref="A2:A249"/>
     </sortState>
